--- a/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
+++ b/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
+++ b/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00567450</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Ropivacaine 0.75% vs Ropivacaine 0.75% Plus Mepivacaine 1.5% for Subgluteal Sciatic Bloc: a Prospective Double Blind Randomized Controlled Study</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00552201</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Randomized Therapeutic Study of a Treatment by Tacrolimus Adapted or Not According to the Genotype of the Cytochrome P450 3A5 After Renal Transplantation</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -596,32 +611,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT01673412</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Research of Prognostic Factors Associated With Healing of Venous Leg Ulcers</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -640,32 +660,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT01815775</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Predictive Value of Flow MRI in Normal Pressure Hydrocephalus Surgery</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -684,36 +709,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00863785</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Treatment of Acute Severe Alcoholic Hepatitis With Corticoids Plus N Acetyl Cysteine Versus Corticoids Alone: a French Multicentre Randomized Controlled Study.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>HAA-NAC</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -732,36 +762,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00815867</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Effect of Epoetin Beta on Renal Function Within 30 Days Following a Kidney Transplant</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Neo-PDGF</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -780,36 +815,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT01219985</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Benefits Study of a Respiratory Gating Protocol for 18F-FDG PET: Application on the Liver</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>RespiTEP</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -828,32 +868,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT00396435</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Multicenter, Prospective, Randomised, Open-label Study, Evaluating the Effect of Two Levels of Haemoglobin on Quality of Life and Speed of Progression of Renal Insufficiency on Renal Transplanted Patients With Chronic Graft Dysfunction (CGD)</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -872,36 +917,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT01539967</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Is the Residual Gastric Volume After Sleeve Gastrectomy an Objective Criterion to Adapt the Treatment Strategy After Failure?</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>GASTROMANCH</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -920,32 +970,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT01502657</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ultrasound Guided Percutaneous Tracheostomy in the ICU</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -964,36 +1019,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT01015417</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Antibiotic Treatment Versus no Antibiotics in the Postoperative Acute Cholecystitis Low and Moderately Severe</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>ABCAL</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1012,32 +1072,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT01441557</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Pilot Study on the Usefulness of 3,4-diaminopyridine in the Treatment of Botulism</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1056,32 +1121,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT00769587</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Phase II Study of Thalidomide in Mastocytosis</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1100,36 +1170,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT01727388</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Prospective Randomized Study Comparing the Results of Digital Rectal Examination in the Supine and Lateral Decubitus</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>RIFIONA</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1148,36 +1223,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT01879384</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Feasibility of Monitoring of Bone Free Flaps With Microdialysis Catheter Directly Positioned in Bone Tissue</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>MTM</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1196,36 +1276,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01513005</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Feasibility of Day Case Management by Laparoscopic Sleeve Gastrectomy for Obesity: a Pilot Study</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>GASTRAMBU</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
         <v>1</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1244,28 +1329,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT01339130</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Assessment of Social-emotional Functioning in Stroke, Frontotemporal Dementia, Alzheimer and Parkinson Diseases</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Emotion</t>
         </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1273,7 +1360,10 @@
       <c r="K18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1292,36 +1382,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT01220843</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Randomized Placebo Controlled Double-blind Trial in CKD Patients Not on Dialysis to Evaluate the Effect of Sevelamer Carbonate in the Control of FGF-23 Serum Levels and Its Consequences in the Evolution of PTH, Calcitriol and Mineral Metabolism Parameters Levels</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>FRENCH</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1340,36 +1435,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT01628822</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Pilot Study, Prospective, Single Center,Randomized, Single Blind, Evaluating the Efficacy of Relaxation to 12 Weeks Against Placebo, in the Overall Care Chronic Pain in Patients With Fibromyalgia</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Sophrodol-1</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1388,36 +1488,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT01774682</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Does the Sleeve Gastrectomy Improve the Kinematics of Obese Patients Perambulation ?</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>MARCHOBESE</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1436,36 +1541,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT01935596</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Comparative Study of the Effects of Two Local Anesthetics Administered Intrathecally: 0.5% Levobupivacaine and Ropivacaine 0.5%</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>ROPI-LEVO</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1484,36 +1594,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT02798965</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Prevalence of Circulating Parvovirus Genome in Recently Diagnosed Graves' Disease: a Case-control Study</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>GPCBasedow</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1532,36 +1647,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT01786694</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Feasibility of Microdialysis by Laparoscopy</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>MTM-COLON-I</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1580,36 +1700,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT02167334</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Non Invasive Ventilation (NIV) Versus Spontaneous Breathing for Preoxygenation During Ear, Nose, and Throat (ENT) Panendoscopy. A Controlled, Prospective, Randomized Study.</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>PANNIV</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1628,36 +1753,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT01573481</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Pressure Controlled Ventilation Versus Pressure Support Ventilation During the Night: New Strategy of Mechanical Ventilation Weaning?</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>REVENTIL</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1676,32 +1806,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT02710448</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>May Metformin be Used in Renal Failure?</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1720,36 +1855,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02899819</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>MecoExpo Study Protocol</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>MecoExpo</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1768,28 +1908,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT01812031</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Benefits Study of a Respiratory Gating Protocol for Positron Emission Tomography: Application on the Lungs</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>PneumoTEP</t>
         </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -1797,7 +1939,10 @@
       <c r="K29" t="b">
         <v>1</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1816,36 +1961,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01651676</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Evaluation of the VQ11 Auto-questionnaire of Quality of Life in Pneumology Investigation, During the Implementation of a Long-acting Bronchodilator Treatment of Patients With COPD.</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>EPIC</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1864,36 +2014,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02799173</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Determination of the RANKL/Osteoprotegerin Ratio in Patients With Systemic Lupus Erythematosus. Role in Osteoporosis and Cardiovascular Calcification</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>CALCILUP</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1912,36 +2067,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT01815541</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Administration of Subcutaneous Teicoplanin in the Treatment of Osteoarticular Infections: Tolerance Study</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>TEICOPLANIN</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1960,36 +2120,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT02421003</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Exploratory Study, Prospective, of Volume, Composition and Bacteriology of the Recovered Blood of Multi-perforated Catheter Inserted in the Drapes Thickness of Incisional Sternal Area During Heart Surgery</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Blood-in-drape</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2008,36 +2173,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT02887378</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Protocol for Anatomopathologic Analysis of Biopsies Using Hot Clamps</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>PincesChaude</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2056,32 +2226,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT01368094</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Early (4 Days) Versus Standard Drainage Removal of the Abdominal Cavity After Pancreaticoduodenectomy- - A Randomized Multicenter Study</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2100,36 +2275,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT02803645</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Clinical Significance of Antiphospholipid Antibodies in Healthy Subjects: Study of Their Association With Cardiovascular Risk Factors, Markers of Arterial Inflammation and Markers of Oxidative Stress</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2148,28 +2328,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT01339195</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Post-stroke Cognitive Impairment and Dementia: Frequency and Anatomical Correlates With the French Version of the National Institute of Neurological Disorders and Stroke (NINDS)-Canadian Stroke Network Battery</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>GRECogVASC</t>
         </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -2177,7 +2359,10 @@
       <c r="K37" t="b">
         <v>1</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2196,36 +2381,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT01819792</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Incidence of Respiratory Viral Infections During AML Induction and Consolidation Chemotherapy</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>LAMVIRE</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2244,36 +2434,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT02894060</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>A Study of Immunological Biomarkers as Predictors of Cardiovascular Events</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>BIOKID</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2292,28 +2487,30 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT02479529</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Weaning of Norepinephrine Guided by the Dynamic Arterial Compliance in Cardiac Surgery Post Operative.</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>SNEAD</t>
         </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
@@ -2321,7 +2518,10 @@
       <c r="K40" t="b">
         <v>1</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2340,36 +2540,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT02858999</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Treatment of Primary Plasma Cell Leukaemia in Subjects Under the Age of 70: Phase II Multicentre Study</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>LPP</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2388,36 +2593,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT01839435</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>PROSPECTIVE EVALUATION OF OUTPATIENT APPENDECTOMY FOR NON COMPLICATED ACUTE APPENDICITIS: Intention-to-treat Study</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>APPENDAMBU</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
         <v>1</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2436,28 +2646,30 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02550496</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Evaluation of Trichoscopy in the Diagnosis of Tinea Capitis. Prospective, Multicenter Study (ETDT)</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>ETDT</t>
         </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
@@ -2465,7 +2677,10 @@
       <c r="K43" t="b">
         <v>1</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2484,36 +2699,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02818595</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Development of Maternal Voice Recognition in Preterm Neonates</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>PREMAVOIX</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2532,36 +2752,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT03118115</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Bioimpedance Variation of Free Flap for After Clamping - MONITRANS</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>MONITRANS</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2580,36 +2805,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT02795663</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Deep Brain Stimulation and Parkinson's Disease: Analysis of the Modifications of the Cortical Activation During Driving Tasks and During Tasks Involving the Control of the Impulses by Means of the Optical Imaging and of the Technique of Delay Discounting Task</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>SCP TCI NIRS</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2628,32 +2858,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT01306227</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>L-Thyroxine Supplementation for Preterm Newborns Less Than 32 Weeks of Gestation With Transient Hypothyroxinemia of Prematurity: a Prospective Randomized Double-blind Trial</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2672,36 +2907,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT01999634</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Evaluation of Microdialysis to Monitor Postoperative Outcomes After Proctectomy</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>MTM-COLON-II</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2718,38 +2958,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2015-000833-64</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Comparaison de trois biomédicaments en termes d’évolution des sous-populations lymphocytaires régulatrices et pro-inflammatoires chez des patients atteints de polyarthrite rhumatoïde.</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>CELyPoR</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2764,36 +3009,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT01543321</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Study of Efficacy and Acceptability of Tetrabenazine in the Late Dyskinetic Syndrome With Neuroleptics: A Randomized, Parallel Group, Double-blind Placebo Controlled Multicentre Trial</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Xeladys</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2812,36 +3062,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT03114579</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Evaluation of the Measurement of Cardiac Output by the NEXFIN HD Monitor in Peroperative</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>NEXFIN</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2860,36 +3115,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT02803671</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Analysis of the Impact of Patent Ductus Arteriosus on Brain Function in Preterm Neonates: Multimodal Approach Integrating EEG-NIRS, Ultrasound and Clinical Data</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>NNP-MULTIMODAL</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2908,36 +3168,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT03111654</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>A Pilot Study on the Prevention of the Vascular RISK Related to Atrial Fibrillation After Intracranial Hemorrhage by Closing the Left Auricle</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>RIVAFAG</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2956,36 +3221,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT03133455</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Repetitive Thoughts in Fibromyalgia: Impact of Rumination on the Emotional and Cognitive Dimensions of Fibromyalgia</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>PRFM-1</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3004,36 +3274,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT03114904</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Comparison of the Efficacy of a Protocol for the Withdrawal of Neurosedation From the Usual Strategy in Cerebroses: Randomized Controlled Trial.</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>NEUROSEV</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3052,36 +3327,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT03031925</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Detection of Annexin A2 in Systemic Lupus Erythematosus</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>ANLUP</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3100,36 +3380,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT03114930</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Study of the Prevalence of Complications Occurring in the Mother-newborn Couple During the First Month After Returning Home, Since the Introduction of Standard Outpatients (According to HAS 2014 Recommendations) at the Amiens-Picardie University Hospital</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>COMPLISTAN</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3148,36 +3433,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT02422017</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Topical Timolol Benefit in Venous Ulcers</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>EETUV</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3196,36 +3486,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT03103698</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>The Interest of the ANI in the Monitoring of Peroperative Analgesia in Bariatric Surgery: a Randomized Single Blind Study.</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>ANI</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3244,36 +3539,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT02800954</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Value of Macrophage-Colony Stimulating Factor as a New Marker of Bone Lesions in Multiple Myeloma</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>MCSF-MYELOME</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3292,28 +3592,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT01613664</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Randomized Prospective Clinical Study Evaluating the Usefulness of Fibrin Glue (TISSEEL® KIT) to Prevent Gastric Fistula, Intra Abdominal Haemorrhage and Intra Abdominal Loco Regional Collections After Laparoscopic Sleeve Gastrectomy</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>TISSEEL</t>
         </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
       </c>
       <c r="J61" t="b">
         <v>1</v>
@@ -3321,7 +3623,10 @@
       <c r="K61" t="b">
         <v>1</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3340,36 +3645,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT03502460</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Fluid Administration Limited by Lung Ultrasonography in the Operating Room: Correlation to Stroke Volume Variation (ORFALU)</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>ORFALU</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3388,36 +3698,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT02765451</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Randomized Trial Evaluating Intervention of the Cancéropôle Nord-Ouest in the Development of Clinical Research in Non-Academic Health Institutions (ERNU)</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>ERNU</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3436,36 +3751,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT03646851</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Impact of Aspergillus on Chronic Obstructive Pulmonary Disease Evolution</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>AspergBPCO</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3484,36 +3804,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT03144141</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Association Between Holter Electro Hysterogram (EHG) and Risk of Preterm Delivery in Women Hospitalized for Threatened Premature Delivery</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>RACE</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3532,36 +3857,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT01298336</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Efficacy of Clarithromycin or Moxifloxacin Containing Regimen in 6 Months Sputum Conversion of Mycobacterium Xenopi</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>CAMOMY</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3580,36 +3910,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT03589261</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Hepatic Blood Flow Changes During Fluid Challenge Assessed by MRI in Volunteers Subjects: a Prospective Monocentric Study. PORTEAU Trial</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>PORTEAU</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3628,36 +3963,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT02770235</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Evaluation of Advanced Glycation End-products (AGE) and the Erectile Dysfunction (DE) in Diabetic Patients</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>APGADEPD</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3676,36 +4016,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT02821078</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Evaluation of 4D Magnetic Resonance Flow Sequence at Hepatic Level</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>HEPAFLUX</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3724,32 +4069,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT03117179</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Patient Follow-up After Consultation in Emergency Department</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3768,36 +4118,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT03506022</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Prevalence of Sleep Apnea Syndrome in Patients With Type 1 Diabetes (APT1)</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>APT1</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3816,36 +4171,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT02786056</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Feasibility of Regional Lung Ventilation Imaging Using 3T MR Imaging With Ultrashort Echo Time (UTE) Pulse Sequences (PULMOREM Study)</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>PULMOREM</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3864,28 +4224,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT02819739</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Impact of Hyperoxia During Cardiopulmonary Bypass in the Occurrence of Cardiovascular Complications After Cardiac Surgery</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>CARDIOX</t>
         </is>
-      </c>
-      <c r="I73" t="b">
-        <v>1</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
@@ -3893,7 +4255,10 @@
       <c r="K73" t="b">
         <v>1</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3912,36 +4277,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT03984669</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>(1,3)-Béta-D-Glucan Levels at Diagnosis of Juvenile Idiopathic Arthritis and Its Correlation With Activity's Disease : a Cohort Sudy</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>BDG -JIA</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3960,36 +4330,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT03964285</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Impact of Rumination on Affectivity After Physical Activity in Fibromyalgia</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>PRFM-3</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4008,36 +4383,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT03140332</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Contribution of the Perfusion Scanner in the Prediction of the Tumor Control of Patients With Hepatocellular Carcinoma Treated With Sorafenib.</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>HCC-CTPerf</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4056,36 +4436,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT02963883</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Erythrocyte Transfusion Based on the Measurement of Central Venous Oxygen Saturation in Postoperative Cardiac Surgery: a Bicentric, Prospective Randomized Study</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>PITT</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>1</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4104,36 +4489,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT03008642</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>CO-Rebreathing in Comparison to Isotopic Red Cell Volume Determination in the Diagnosis of Primitive and Secondary Polycythemia: a Multicentric Study. Co-Rebreathing for the Measurement of Total Red Cell Mass in Polycythemia.</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>Poly-CO</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4152,36 +4542,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT03998397</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Self-estimates and Objective Measurement of Blood Alcohol Concentration in Patients With Alcohol Intoxication Presenting to an Emergency Department</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>SEOBACED</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4200,36 +4595,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT04341597</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Evaluation of Transperineal Ultrasound Technic for Diagnostic Shorted Cervical Length for Pregnant Women (2nd and 3rd Trimester) Compared to Endovaginal Technic (Gold Standard)</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>ECHO</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4248,36 +4648,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT03882320</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Medico-economic Evaluation of Sublingual PCA (Zalviso) Versus Oxycodone-PCA in the Management of Postoperative Pain. ''MEZO''</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>MEZO</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4296,36 +4701,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT04049955</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Endoscopic Management of Fistulas Related to Sleeve Gastrectomy With Double Pigtail Stents According to the BARTOLI Technique : an Interventional Multicentric and Prospective Study.</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>bartoli</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4344,36 +4754,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT03877016</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Prospective, Multicentric, Randomized on Two Arms, Controlled, by Cross-over, Pilot Study, in Order to Evaluate Disconfort Among Outpatients Using actiTENS for Neuropathic Pain vs TENS ECO 2.</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>QolTENS</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4392,36 +4807,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT03139045</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Impact of VeinViewer® Vision to Guide Peripheral Venipuncture in Geriatrics</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>VeinGER</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4440,36 +4860,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT03976505</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Study of Comprehension and Execution of Medication Prescriptions Displayed on Touch-screens and Tablets in Parkinsonian Patients and Healthy Volunteers</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>TACTIPARK</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4488,36 +4913,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT02895750</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Efficacity and Safety of Metformin XR in CKD Stage 1 to 3</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>METXR/CKD</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4536,36 +4966,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT02002572</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Quantification, Analysis and Simulation of Facial Mimics Movements</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>SIMOVI-IRM</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4584,36 +5019,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT05132036</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Lung Ultrasound Assessment of Fluid Overload in Haemodialysis Patients Using 8 Sites Score</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>EP8SH</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4632,36 +5072,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT04700631</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Extracellular Vesicles as Biomarkers for Chronic Renal Failure</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>VE-IRC</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4680,36 +5125,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT04270136</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Feasibility of Total Mastectomy in Ambulatory Care</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>AMASTEC</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4728,36 +5178,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT05701020</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Evaluation of Prevalence of Sexuality Alteration in Women With an Abnormal Pap Test</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>EVASEF</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4776,36 +5231,41 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT05404737</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Interchangeability of Right Ventricle Longitudinal Shortening Fraction Measurements Performed by Trans-thoracic and Trans-esophageal Echocardiography in the Operating Room</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>RVLSBO</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4824,36 +5284,41 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT04469491</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Treatment of COVID-19 by Nebulization of Inteferon Beta 1b Efficiency and Safety Study</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>COV-NI</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4872,28 +5337,30 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>NCT03852147</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Individualized Hemodynamic Optimization by Indirect Measurement of the Respiratory Quotient in Major Surgery: Prospective Randomized Multicentre Open-Label Study (OPHIQUE) Individualized Optimization by Indirect Measurement of the Respiratory Quotient</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>OPHIQUE</t>
         </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
       </c>
       <c r="J94" t="b">
         <v>1</v>
@@ -4901,7 +5368,10 @@
       <c r="K94" t="b">
         <v>1</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="b">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4920,36 +5390,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT03927079</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Predictive Factors of Good Pulmonary Penetration of Antibiotics : AntiBiotics Dosage in Broncho-Alveolar Lavage</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>ABBA</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4968,36 +5443,41 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>NCT05815134</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Cell Free DNA Quantification in Patients With Endometriosis Followed Witd Medical Assistance to Procreation</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>ENDO-FIV</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5016,36 +5496,41 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>NCT05922956</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Facial Emotion Recognition in Patients With Euthymic Bipolar Disorder I and II</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>REF-BIP</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5064,36 +5549,41 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>NCT03874923</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Comparison of 250 ml Versus 500 ml of Fluid Challenge on Oxygen Consumption in Critical Care Patients: an Open Label Multicentre Prospective Study</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>KOBIAS</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5112,36 +5602,41 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>NCT03140748</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Kinetics of Serum β-D-glucan During Peritonitis With Candida in Resuscitation</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>PERIGLUC1</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
       <c r="J99" t="b">
         <v>0</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5160,36 +5655,41 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>NCT05573659</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Capillary Refill Time Calculated With a Video-assisted Method Has a Better Reproducibility Than Visual Method in Critically Ill Patients a Prospective Monocentric Study</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>EVITREC</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5208,36 +5708,41 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>NCT04794634</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Relationship Between Alzheimer Disease and Diminution of the Three Macular Nervous Retinal Layers</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>RETEVAL</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -5256,36 +5761,41 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>NCT05103189</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>4D Flow Cardiac MRI Velocity Mapping in Patients With Pulmonary Hypertension: Estimation of Pulmonary Arterial Pressure and Comparison With Right Heart Catheterization and Doppler Echocardiography</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>HTPFLUW</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
       <c r="J102" t="b">
         <v>0</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5304,36 +5814,41 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>NCT05769244</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Near Infrared Spectroscopy and Testicular Torsion in Children</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>SPIRETTE</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
       <c r="J103" t="b">
         <v>0</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5352,36 +5867,41 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>NCT04350502</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Pharmacokinetics and Pleural Fluid Penetration of Amoxicillin and Clavulanic Acid in Patients With Pleural Infections</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>PK-plèvre</t>
         </is>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
       <c r="J104" t="b">
         <v>0</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5400,36 +5920,41 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>NCT04172818</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Feasibility Study of a Diary for Allogenic Hematopoietic Stem Cell Transplantation Patients and Families</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>JACintHE</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -5448,36 +5973,41 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>NCT04222010</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Serratus Plain Block Versus Paravertebral Block Versus Serratus Plain Block and Paravertebral Block for Postoperative Pain Following Thoracoscopic Surgery</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>thoracoscopic</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5496,36 +6026,41 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>NCT04048239</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Development of a Robotic Minimally Invasive Pathway for Cochlear Implantation</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>ROSA-IC</t>
         </is>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
       <c r="J107" t="b">
         <v>0</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5544,36 +6079,41 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>NCT05649839</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Design of a Prototype Garment Adapted to Demented Elderly Subjects With Disturbing Behavioral Problems in the Management of Sphincter Disorders</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>GERONESIE</t>
         </is>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
       <c r="J108" t="b">
         <v>0</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5592,36 +6132,41 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>NCT06094322</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>Advanced DL-based T2w and DWI MR Sequences for Prostate Imaging</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>DLRPRO</t>
         </is>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
       <c r="J109" t="b">
         <v>0</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5640,36 +6185,41 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>NCT04103762</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Interest of Intravenous Cholangiography With Indocyanine Green, Compared to Contrast Cholangiography, in the Context of Laparoscopic Cholecystectomy for Grade 1 and 2 Acute Gallstone Cholecystitis: Prospective, Monocentric, Randomized Study</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>VIFCAL</t>
         </is>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
       <c r="J110" t="b">
         <v>0</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5688,28 +6238,33 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>NCT01628952</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
         <is>
           <t>Comparison of the Bilateral Transversus Abdominis Plane (TAP) Block Versus Curare in Muscle Relaxation of the Abdominal Wall During Laparoscopic Digestive Surgery: Prospective Randomized Study</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="b">
         <v>0</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5726,36 +6281,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
         <is>
           <t>2021-005508-37</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
         <is>
           <t>Evaluation of plasma concentrations of intravenous lidocaine and epidural ropivacaine when used in combination in major abdominal surgery 
  Évaluation des concentrations plasmatiques de la lidocaïne intra veineuse et de la ropivacaïne utilisée par voie péridurale lors de leur association dans les chirurgies abdominales majeures.</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>LARA 
  LARA</t>
         </is>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
       <c r="J112" t="b">
         <v>0</v>
       </c>
       <c r="K112" t="b">
         <v>0</v>
       </c>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5768,36 +6328,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
         <is>
           <t>2020-001892-34</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr">
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
         <is>
           <t>Treatment of COVID-19 by Nebulization of Inteferon Beta 1b added to lopinavir/ritonavir: Feasibility, Efficiency and Safety Study 
  Traitement du COVID-19 : Etude de faisabilité, d’efficacité et de sécurité de l’ajout de Nébubilisation d’Interferon Beta 1b au lopinavir/ritonavir</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>COV-NI 
  COV-NI</t>
         </is>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
       <c r="J113" t="b">
         <v>0</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
       </c>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5810,35 +6375,40 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
         <is>
           <t>2016-001233-27</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
         <is>
           <t>Efficacity and safety of metformin extended release (XR) in diabetic patients with CKD in stages 1 to 3 (METXR/CKD) 
  Efficacité et tolérance de la metformine à diffusion prolongée (XR) chez le sujet diabétique dans les stades 1 à 3 d’insuffisance rénale chronique</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>METXRpourIRC</t>
         </is>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
       <c r="J114" t="b">
         <v>0</v>
       </c>
       <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" t="b">
         <v>1</v>
       </c>
-      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
+++ b/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
+++ b/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
+++ b/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00567450</t>

--- a/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
+++ b/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
@@ -85,18 +85,18 @@
     <t>NCT00815867</t>
   </si>
   <si>
+    <t>NCT00396435</t>
+  </si>
+  <si>
     <t>NCT01219985</t>
   </si>
   <si>
-    <t>NCT00396435</t>
+    <t>NCT01502657</t>
   </si>
   <si>
     <t>NCT01539967</t>
   </si>
   <si>
-    <t>NCT01502657</t>
-  </si>
-  <si>
     <t>NCT01015417</t>
   </si>
   <si>
@@ -106,12 +106,12 @@
     <t>NCT00769587</t>
   </si>
   <si>
+    <t>NCT01879384</t>
+  </si>
+  <si>
     <t>NCT01727388</t>
   </si>
   <si>
-    <t>NCT01879384</t>
-  </si>
-  <si>
     <t>NCT01513005</t>
   </si>
   <si>
@@ -121,270 +121,270 @@
     <t>NCT01220843</t>
   </si>
   <si>
+    <t>NCT01935596</t>
+  </si>
+  <si>
+    <t>NCT01786694</t>
+  </si>
+  <si>
+    <t>NCT02798965</t>
+  </si>
+  <si>
     <t>NCT01628822</t>
   </si>
   <si>
     <t>NCT01774682</t>
   </si>
   <si>
-    <t>NCT01935596</t>
-  </si>
-  <si>
-    <t>NCT02798965</t>
-  </si>
-  <si>
-    <t>NCT01786694</t>
-  </si>
-  <si>
     <t>NCT02167334</t>
   </si>
   <si>
+    <t>NCT01812031</t>
+  </si>
+  <si>
+    <t>NCT02799173</t>
+  </si>
+  <si>
     <t>NCT01573481</t>
   </si>
   <si>
+    <t>NCT01815541</t>
+  </si>
+  <si>
+    <t>NCT02899819</t>
+  </si>
+  <si>
+    <t>NCT02421003</t>
+  </si>
+  <si>
     <t>NCT02710448</t>
   </si>
   <si>
-    <t>NCT02899819</t>
-  </si>
-  <si>
-    <t>NCT01812031</t>
-  </si>
-  <si>
     <t>NCT01651676</t>
   </si>
   <si>
-    <t>NCT02799173</t>
-  </si>
-  <si>
-    <t>NCT01815541</t>
-  </si>
-  <si>
-    <t>NCT02421003</t>
+    <t>NCT02858999</t>
+  </si>
+  <si>
+    <t>NCT01339195</t>
+  </si>
+  <si>
+    <t>NCT01839435</t>
+  </si>
+  <si>
+    <t>NCT01819792</t>
+  </si>
+  <si>
+    <t>NCT01368094</t>
+  </si>
+  <si>
+    <t>NCT02479529</t>
+  </si>
+  <si>
+    <t>NCT02803645</t>
   </si>
   <si>
     <t>NCT02887378</t>
   </si>
   <si>
-    <t>NCT01368094</t>
-  </si>
-  <si>
-    <t>NCT02803645</t>
-  </si>
-  <si>
-    <t>NCT01339195</t>
-  </si>
-  <si>
-    <t>NCT01819792</t>
-  </si>
-  <si>
     <t>NCT02894060</t>
   </si>
   <si>
-    <t>NCT02479529</t>
-  </si>
-  <si>
-    <t>NCT02858999</t>
-  </si>
-  <si>
-    <t>NCT01839435</t>
+    <t>NCT02818595</t>
   </si>
   <si>
     <t>NCT02550496</t>
   </si>
   <si>
-    <t>NCT02818595</t>
+    <t>NCT02803671</t>
+  </si>
+  <si>
+    <t>NCT01999634</t>
   </si>
   <si>
     <t>NCT03118115</t>
   </si>
   <si>
+    <t>NCT03133455</t>
+  </si>
+  <si>
+    <t>NCT01306227</t>
+  </si>
+  <si>
+    <t>NCT03111654</t>
+  </si>
+  <si>
+    <t>NCT01543321</t>
+  </si>
+  <si>
+    <t>NCT03114579</t>
+  </si>
+  <si>
     <t>NCT02795663</t>
   </si>
   <si>
-    <t>NCT01306227</t>
-  </si>
-  <si>
-    <t>NCT01999634</t>
-  </si>
-  <si>
-    <t>NCT01543321</t>
-  </si>
-  <si>
-    <t>NCT03114579</t>
-  </si>
-  <si>
-    <t>NCT02803671</t>
-  </si>
-  <si>
-    <t>NCT03111654</t>
-  </si>
-  <si>
-    <t>NCT03133455</t>
+    <t>NCT02422017</t>
+  </si>
+  <si>
+    <t>NCT03114930</t>
+  </si>
+  <si>
+    <t>NCT03031925</t>
+  </si>
+  <si>
+    <t>NCT03103698</t>
+  </si>
+  <si>
+    <t>NCT01613664</t>
+  </si>
+  <si>
+    <t>NCT02800954</t>
   </si>
   <si>
     <t>NCT03114904</t>
   </si>
   <si>
-    <t>NCT03031925</t>
-  </si>
-  <si>
-    <t>NCT03114930</t>
-  </si>
-  <si>
-    <t>NCT02422017</t>
-  </si>
-  <si>
-    <t>NCT03103698</t>
-  </si>
-  <si>
-    <t>NCT02800954</t>
-  </si>
-  <si>
-    <t>NCT01613664</t>
+    <t>NCT02819739</t>
+  </si>
+  <si>
+    <t>NCT03144141</t>
+  </si>
+  <si>
+    <t>NCT02821078</t>
+  </si>
+  <si>
+    <t>NCT03117179</t>
+  </si>
+  <si>
+    <t>NCT01298336</t>
+  </si>
+  <si>
+    <t>NCT02786056</t>
+  </si>
+  <si>
+    <t>NCT03646851</t>
+  </si>
+  <si>
+    <t>NCT02765451</t>
+  </si>
+  <si>
+    <t>NCT03589261</t>
+  </si>
+  <si>
+    <t>NCT03506022</t>
+  </si>
+  <si>
+    <t>NCT02770235</t>
   </si>
   <si>
     <t>NCT03502460</t>
   </si>
   <si>
-    <t>NCT02765451</t>
-  </si>
-  <si>
-    <t>NCT03646851</t>
-  </si>
-  <si>
-    <t>NCT03144141</t>
-  </si>
-  <si>
-    <t>NCT01298336</t>
-  </si>
-  <si>
-    <t>NCT03589261</t>
-  </si>
-  <si>
-    <t>NCT02770235</t>
-  </si>
-  <si>
-    <t>NCT02821078</t>
-  </si>
-  <si>
-    <t>NCT03117179</t>
-  </si>
-  <si>
-    <t>NCT03506022</t>
-  </si>
-  <si>
-    <t>NCT02786056</t>
-  </si>
-  <si>
-    <t>NCT02819739</t>
-  </si>
-  <si>
     <t>NCT03984669</t>
   </si>
   <si>
+    <t>NCT03008642</t>
+  </si>
+  <si>
+    <t>NCT02963883</t>
+  </si>
+  <si>
     <t>NCT03964285</t>
   </si>
   <si>
     <t>NCT03140332</t>
   </si>
   <si>
-    <t>NCT02963883</t>
-  </si>
-  <si>
-    <t>NCT03008642</t>
-  </si>
-  <si>
     <t>NCT03998397</t>
   </si>
   <si>
+    <t>NCT03976505</t>
+  </si>
+  <si>
+    <t>NCT03139045</t>
+  </si>
+  <si>
     <t>NCT04341597</t>
   </si>
   <si>
+    <t>NCT03877016</t>
+  </si>
+  <si>
+    <t>NCT04049955</t>
+  </si>
+  <si>
     <t>NCT03882320</t>
   </si>
   <si>
-    <t>NCT04049955</t>
-  </si>
-  <si>
-    <t>NCT03877016</t>
-  </si>
-  <si>
-    <t>NCT03139045</t>
-  </si>
-  <si>
-    <t>NCT03976505</t>
+    <t>NCT05132036</t>
+  </si>
+  <si>
+    <t>NCT02002572</t>
   </si>
   <si>
     <t>NCT02895750</t>
   </si>
   <si>
-    <t>NCT02002572</t>
-  </si>
-  <si>
-    <t>NCT05132036</t>
+    <t>NCT05922956</t>
+  </si>
+  <si>
+    <t>NCT03927079</t>
+  </si>
+  <si>
+    <t>NCT04350502</t>
+  </si>
+  <si>
+    <t>NCT04172818</t>
+  </si>
+  <si>
+    <t>NCT03874923</t>
+  </si>
+  <si>
+    <t>NCT04270136</t>
+  </si>
+  <si>
+    <t>NCT05649839</t>
+  </si>
+  <si>
+    <t>NCT05573659</t>
+  </si>
+  <si>
+    <t>NCT03852147</t>
+  </si>
+  <si>
+    <t>NCT05404737</t>
   </si>
   <si>
     <t>NCT04700631</t>
   </si>
   <si>
-    <t>NCT04270136</t>
+    <t>NCT05103189</t>
+  </si>
+  <si>
+    <t>NCT03140748</t>
+  </si>
+  <si>
+    <t>NCT04222010</t>
+  </si>
+  <si>
+    <t>NCT04794634</t>
+  </si>
+  <si>
+    <t>NCT05815134</t>
+  </si>
+  <si>
+    <t>NCT05769244</t>
+  </si>
+  <si>
+    <t>NCT04048239</t>
+  </si>
+  <si>
+    <t>NCT04469491</t>
   </si>
   <si>
     <t>NCT05701020</t>
   </si>
   <si>
-    <t>NCT05404737</t>
-  </si>
-  <si>
-    <t>NCT04469491</t>
-  </si>
-  <si>
-    <t>NCT03852147</t>
-  </si>
-  <si>
-    <t>NCT03927079</t>
-  </si>
-  <si>
-    <t>NCT05815134</t>
-  </si>
-  <si>
-    <t>NCT05922956</t>
-  </si>
-  <si>
-    <t>NCT03874923</t>
-  </si>
-  <si>
-    <t>NCT03140748</t>
-  </si>
-  <si>
-    <t>NCT05573659</t>
-  </si>
-  <si>
-    <t>NCT04794634</t>
-  </si>
-  <si>
-    <t>NCT05103189</t>
-  </si>
-  <si>
-    <t>NCT05769244</t>
-  </si>
-  <si>
-    <t>NCT04350502</t>
-  </si>
-  <si>
-    <t>NCT04172818</t>
-  </si>
-  <si>
-    <t>NCT04222010</t>
-  </si>
-  <si>
-    <t>NCT04048239</t>
-  </si>
-  <si>
-    <t>NCT05649839</t>
-  </si>
-  <si>
     <t>NCT06094322</t>
   </si>
   <si>
@@ -475,18 +475,18 @@
     <t>Effect of Epoetin Beta on Renal Function Within 30 Days Following a Kidney Transplant</t>
   </si>
   <si>
+    <t>Multicenter, Prospective, Randomised, Open-label Study, Evaluating the Effect of Two Levels of Haemoglobin on Quality of Life and Speed of Progression of Renal Insufficiency on Renal Transplanted Patients With Chronic Graft Dysfunction (CGD)</t>
+  </si>
+  <si>
     <t>Benefits Study of a Respiratory Gating Protocol for 18F-FDG PET: Application on the Liver</t>
   </si>
   <si>
-    <t>Multicenter, Prospective, Randomised, Open-label Study, Evaluating the Effect of Two Levels of Haemoglobin on Quality of Life and Speed of Progression of Renal Insufficiency on Renal Transplanted Patients With Chronic Graft Dysfunction (CGD)</t>
+    <t>Ultrasound Guided Percutaneous Tracheostomy in the ICU</t>
   </si>
   <si>
     <t>Is the Residual Gastric Volume After Sleeve Gastrectomy an Objective Criterion to Adapt the Treatment Strategy After Failure?</t>
   </si>
   <si>
-    <t>Ultrasound Guided Percutaneous Tracheostomy in the ICU</t>
-  </si>
-  <si>
     <t>Antibiotic Treatment Versus no Antibiotics in the Postoperative Acute Cholecystitis Low and Moderately Severe</t>
   </si>
   <si>
@@ -496,12 +496,12 @@
     <t>Phase II Study of Thalidomide in Mastocytosis</t>
   </si>
   <si>
+    <t>Feasibility of Monitoring of Bone Free Flaps With Microdialysis Catheter Directly Positioned in Bone Tissue</t>
+  </si>
+  <si>
     <t>Prospective Randomized Study Comparing the Results of Digital Rectal Examination in the Supine and Lateral Decubitus</t>
   </si>
   <si>
-    <t>Feasibility of Monitoring of Bone Free Flaps With Microdialysis Catheter Directly Positioned in Bone Tissue</t>
-  </si>
-  <si>
     <t>Feasibility of Day Case Management by Laparoscopic Sleeve Gastrectomy for Obesity: a Pilot Study</t>
   </si>
   <si>
@@ -511,280 +511,277 @@
     <t>Randomized Placebo Controlled Double-blind Trial in CKD Patients Not on Dialysis to Evaluate the Effect of Sevelamer Carbonate in the Control of FGF-23 Serum Levels and Its Consequences in the Evolution of PTH, Calcitriol and Mineral Metabolism Parameters Levels</t>
   </si>
   <si>
+    <t>Comparative Study of the Effects of Two Local Anesthetics Administered Intrathecally: 0.5% Levobupivacaine and Ropivacaine 0.5%</t>
+  </si>
+  <si>
+    <t>Feasibility of Microdialysis by Laparoscopy</t>
+  </si>
+  <si>
+    <t>Prevalence of Circulating Parvovirus Genome in Recently Diagnosed Graves' Disease: a Case-control Study</t>
+  </si>
+  <si>
     <t>Pilot Study, Prospective, Single Center,Randomized, Single Blind, Evaluating the Efficacy of Relaxation to 12 Weeks Against Placebo, in the Overall Care Chronic Pain in Patients With Fibromyalgia</t>
   </si>
   <si>
     <t>Does the Sleeve Gastrectomy Improve the Kinematics of Obese Patients Perambulation ?</t>
   </si>
   <si>
-    <t>Comparative Study of the Effects of Two Local Anesthetics Administered Intrathecally: 0.5% Levobupivacaine and Ropivacaine 0.5%</t>
-  </si>
-  <si>
-    <t>Prevalence of Circulating Parvovirus Genome in Recently Diagnosed Graves' Disease: a Case-control Study</t>
-  </si>
-  <si>
-    <t>Feasibility of Microdialysis by Laparoscopy</t>
-  </si>
-  <si>
     <t>Non Invasive Ventilation (NIV) Versus Spontaneous Breathing for Preoxygenation During Ear, Nose, and Throat (ENT) Panendoscopy. A Controlled, Prospective, Randomized Study.</t>
   </si>
   <si>
+    <t>Benefits Study of a Respiratory Gating Protocol for Positron Emission Tomography: Application on the Lungs</t>
+  </si>
+  <si>
+    <t>Determination of the RANKL/Osteoprotegerin Ratio in Patients With Systemic Lupus Erythematosus. Role in Osteoporosis and Cardiovascular Calcification</t>
+  </si>
+  <si>
     <t>Pressure Controlled Ventilation Versus Pressure Support Ventilation During the Night: New Strategy of Mechanical Ventilation Weaning?</t>
   </si>
   <si>
+    <t>Administration of Subcutaneous Teicoplanin in the Treatment of Osteoarticular Infections: Tolerance Study</t>
+  </si>
+  <si>
+    <t>MecoExpo Study Protocol</t>
+  </si>
+  <si>
+    <t>Exploratory Study, Prospective, of Volume, Composition and Bacteriology of the Recovered Blood of Multi-perforated Catheter Inserted in the Drapes Thickness of Incisional Sternal Area During Heart Surgery</t>
+  </si>
+  <si>
     <t>May Metformin be Used in Renal Failure?</t>
   </si>
   <si>
-    <t>MecoExpo Study Protocol</t>
-  </si>
-  <si>
-    <t>Benefits Study of a Respiratory Gating Protocol for Positron Emission Tomography: Application on the Lungs</t>
-  </si>
-  <si>
     <t>Evaluation of the VQ11 Auto-questionnaire of Quality of Life in Pneumology Investigation, During the Implementation of a Long-acting Bronchodilator Treatment of Patients With COPD.</t>
   </si>
   <si>
-    <t>Determination of the RANKL/Osteoprotegerin Ratio in Patients With Systemic Lupus Erythematosus. Role in Osteoporosis and Cardiovascular Calcification</t>
-  </si>
-  <si>
-    <t>Administration of Subcutaneous Teicoplanin in the Treatment of Osteoarticular Infections: Tolerance Study</t>
-  </si>
-  <si>
-    <t>Exploratory Study, Prospective, of Volume, Composition and Bacteriology of the Recovered Blood of Multi-perforated Catheter Inserted in the Drapes Thickness of Incisional Sternal Area During Heart Surgery</t>
+    <t>Treatment of Primary Plasma Cell Leukaemia in Subjects Under the Age of 70: Phase II Multicentre Study</t>
+  </si>
+  <si>
+    <t>Post-stroke Cognitive Impairment and Dementia: Frequency and Anatomical Correlates With the French Version of the National Institute of Neurological Disorders and Stroke (NINDS)-Canadian Stroke Network Battery</t>
+  </si>
+  <si>
+    <t>PROSPECTIVE EVALUATION OF OUTPATIENT APPENDECTOMY FOR NON COMPLICATED ACUTE APPENDICITIS: Intention-to-treat Study</t>
+  </si>
+  <si>
+    <t>Incidence of Respiratory Viral Infections During AML Induction and Consolidation Chemotherapy</t>
+  </si>
+  <si>
+    <t>Early (4 Days) Versus Standard Drainage Removal of the Abdominal Cavity After Pancreaticoduodenectomy- - A Randomized Multicenter Study</t>
+  </si>
+  <si>
+    <t>Weaning of Norepinephrine Guided by the Dynamic Arterial Compliance in Cardiac Surgery Post Operative.</t>
+  </si>
+  <si>
+    <t>Clinical Significance of Antiphospholipid Antibodies in Healthy Subjects: Study of Their Association With Cardiovascular Risk Factors, Markers of Arterial Inflammation and Markers of Oxidative Stress</t>
   </si>
   <si>
     <t>Protocol for Anatomopathologic Analysis of Biopsies Using Hot Clamps</t>
   </si>
   <si>
-    <t>Early (4 Days) Versus Standard Drainage Removal of the Abdominal Cavity After Pancreaticoduodenectomy- - A Randomized Multicenter Study</t>
-  </si>
-  <si>
-    <t>Clinical Significance of Antiphospholipid Antibodies in Healthy Subjects: Study of Their Association With Cardiovascular Risk Factors, Markers of Arterial Inflammation and Markers of Oxidative Stress</t>
-  </si>
-  <si>
-    <t>Post-stroke Cognitive Impairment and Dementia: Frequency and Anatomical Correlates With the French Version of the National Institute of Neurological Disorders and Stroke (NINDS)-Canadian Stroke Network Battery</t>
-  </si>
-  <si>
-    <t>Incidence of Respiratory Viral Infections During AML Induction and Consolidation Chemotherapy</t>
-  </si>
-  <si>
     <t>A Study of Immunological Biomarkers as Predictors of Cardiovascular Events</t>
   </si>
   <si>
-    <t>Weaning of Norepinephrine Guided by the Dynamic Arterial Compliance in Cardiac Surgery Post Operative.</t>
-  </si>
-  <si>
-    <t>Treatment of Primary Plasma Cell Leukaemia in Subjects Under the Age of 70: Phase II Multicentre Study</t>
-  </si>
-  <si>
-    <t>PROSPECTIVE EVALUATION OF OUTPATIENT APPENDECTOMY FOR NON COMPLICATED ACUTE APPENDICITIS: Intention-to-treat Study</t>
+    <t>Development of Maternal Voice Recognition in Preterm Neonates</t>
   </si>
   <si>
     <t>Evaluation of Trichoscopy in the Diagnosis of Tinea Capitis. Prospective, Multicenter Study (ETDT)</t>
   </si>
   <si>
-    <t>Development of Maternal Voice Recognition in Preterm Neonates</t>
+    <t>Analysis of the Impact of Patent Ductus Arteriosus on Brain Function in Preterm Neonates: Multimodal Approach Integrating EEG-NIRS, Ultrasound and Clinical Data</t>
+  </si>
+  <si>
+    <t>Evaluation of Microdialysis to Monitor Postoperative Outcomes After Proctectomy</t>
   </si>
   <si>
     <t>Bioimpedance Variation of Free Flap for After Clamping - MONITRANS</t>
   </si>
   <si>
+    <t>Repetitive Thoughts in Fibromyalgia: Impact of Rumination on the Emotional and Cognitive Dimensions of Fibromyalgia</t>
+  </si>
+  <si>
+    <t>L-Thyroxine Supplementation for Preterm Newborns Less Than 32 Weeks of Gestation With Transient Hypothyroxinemia of Prematurity: a Prospective Randomized Double-blind Trial</t>
+  </si>
+  <si>
+    <t>A Pilot Study on the Prevention of the Vascular RISK Related to Atrial Fibrillation After Intracranial Hemorrhage by Closing the Left Auricle</t>
+  </si>
+  <si>
+    <t>Comparaison de trois biomédicaments en termes d’évolution des sous-populations lymphocytaires régulatrices et pro-inflammatoires chez des patients atteints de polyarthrite rhumatoïde.</t>
+  </si>
+  <si>
+    <t>Study of Efficacy and Acceptability of Tetrabenazine in the Late Dyskinetic Syndrome With Neuroleptics: A Randomized, Parallel Group, Double-blind Placebo Controlled Multicentre Trial</t>
+  </si>
+  <si>
+    <t>Evaluation of the Measurement of Cardiac Output by the NEXFIN HD Monitor in Peroperative</t>
+  </si>
+  <si>
     <t>Deep Brain Stimulation and Parkinson's Disease: Analysis of the Modifications of the Cortical Activation During Driving Tasks and During Tasks Involving the Control of the Impulses by Means of the Optical Imaging and of the Technique of Delay Discounting Task</t>
   </si>
   <si>
-    <t>L-Thyroxine Supplementation for Preterm Newborns Less Than 32 Weeks of Gestation With Transient Hypothyroxinemia of Prematurity: a Prospective Randomized Double-blind Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of Microdialysis to Monitor Postoperative Outcomes After Proctectomy</t>
-  </si>
-  <si>
-    <t>Comparaison de trois biomédicaments en termes d’évolution des sous-populations lymphocytaires régulatrices et pro-inflammatoires chez des patients atteints de polyarthrite rhumatoïde.</t>
-  </si>
-  <si>
-    <t>Study of Efficacy and Acceptability of Tetrabenazine in the Late Dyskinetic Syndrome With Neuroleptics: A Randomized, Parallel Group, Double-blind Placebo Controlled Multicentre Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of the Measurement of Cardiac Output by the NEXFIN HD Monitor in Peroperative</t>
-  </si>
-  <si>
-    <t>Analysis of the Impact of Patent Ductus Arteriosus on Brain Function in Preterm Neonates: Multimodal Approach Integrating EEG-NIRS, Ultrasound and Clinical Data</t>
-  </si>
-  <si>
-    <t>A Pilot Study on the Prevention of the Vascular RISK Related to Atrial Fibrillation After Intracranial Hemorrhage by Closing the Left Auricle</t>
-  </si>
-  <si>
-    <t>Repetitive Thoughts in Fibromyalgia: Impact of Rumination on the Emotional and Cognitive Dimensions of Fibromyalgia</t>
+    <t>Topical Timolol Benefit in Venous Ulcers</t>
+  </si>
+  <si>
+    <t>Study of the Prevalence of Complications Occurring in the Mother-newborn Couple During the First Month After Returning Home, Since the Introduction of Standard Outpatients (According to HAS 2014 Recommendations) at the Amiens-Picardie University Hospital</t>
+  </si>
+  <si>
+    <t>Detection of Annexin A2 in Systemic Lupus Erythematosus</t>
+  </si>
+  <si>
+    <t>The Interest of the ANI in the Monitoring of Peroperative Analgesia in Bariatric Surgery: a Randomized Single Blind Study.</t>
+  </si>
+  <si>
+    <t>Randomized Prospective Clinical Study Evaluating the Usefulness of Fibrin Glue (TISSEEL® KIT) to Prevent Gastric Fistula, Intra Abdominal Haemorrhage and Intra Abdominal Loco Regional Collections After Laparoscopic Sleeve Gastrectomy</t>
+  </si>
+  <si>
+    <t>Value of Macrophage-Colony Stimulating Factor as a New Marker of Bone Lesions in Multiple Myeloma</t>
   </si>
   <si>
     <t>Comparison of the Efficacy of a Protocol for the Withdrawal of Neurosedation From the Usual Strategy in Cerebroses: Randomized Controlled Trial.</t>
   </si>
   <si>
-    <t>Detection of Annexin A2 in Systemic Lupus Erythematosus</t>
-  </si>
-  <si>
-    <t>Study of the Prevalence of Complications Occurring in the Mother-newborn Couple During the First Month After Returning Home, Since the Introduction of Standard Outpatients (According to HAS 2014 Recommendations) at the Amiens-Picardie University Hospital</t>
-  </si>
-  <si>
-    <t>Topical Timolol Benefit in Venous Ulcers</t>
-  </si>
-  <si>
-    <t>The Interest of the ANI in the Monitoring of Peroperative Analgesia in Bariatric Surgery: a Randomized Single Blind Study.</t>
-  </si>
-  <si>
-    <t>Value of Macrophage-Colony Stimulating Factor as a New Marker of Bone Lesions in Multiple Myeloma</t>
-  </si>
-  <si>
-    <t>Randomized Prospective Clinical Study Evaluating the Usefulness of Fibrin Glue (TISSEEL® KIT) to Prevent Gastric Fistula, Intra Abdominal Haemorrhage and Intra Abdominal Loco Regional Collections After Laparoscopic Sleeve Gastrectomy</t>
+    <t>Impact of Hyperoxia During Cardiopulmonary Bypass in the Occurrence of Cardiovascular Complications After Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>Association Between Holter Electro Hysterogram (EHG) and Risk of Preterm Delivery in Women Hospitalized for Threatened Premature Delivery</t>
+  </si>
+  <si>
+    <t>Evaluation of 4D Magnetic Resonance Flow Sequence at Hepatic Level</t>
+  </si>
+  <si>
+    <t>Patient Follow-up After Consultation in Emergency Department</t>
+  </si>
+  <si>
+    <t>Efficacy of Clarithromycin or Moxifloxacin Containing Regimen in 6 Months Sputum Conversion of Mycobacterium Xenopi</t>
+  </si>
+  <si>
+    <t>Feasibility of Regional Lung Ventilation Imaging Using 3T MR Imaging With Ultrashort Echo Time (UTE) Pulse Sequences (PULMOREM Study)</t>
+  </si>
+  <si>
+    <t>Impact of Aspergillus on Chronic Obstructive Pulmonary Disease Evolution</t>
+  </si>
+  <si>
+    <t>Randomized Trial Evaluating Intervention of the Cancéropôle Nord-Ouest in the Development of Clinical Research in Non-Academic Health Institutions (ERNU)</t>
+  </si>
+  <si>
+    <t>Hepatic Blood Flow Changes During Fluid Challenge Assessed by MRI in Volunteers Subjects: a Prospective Monocentric Study. PORTEAU Trial</t>
+  </si>
+  <si>
+    <t>Prevalence of Sleep Apnea Syndrome in Patients With Type 1 Diabetes (APT1)</t>
+  </si>
+  <si>
+    <t>Evaluation of Advanced Glycation End-products (AGE) and the Erectile Dysfunction (DE) in Diabetic Patients</t>
   </si>
   <si>
     <t>Fluid Administration Limited by Lung Ultrasonography in the Operating Room: Correlation to Stroke Volume Variation (ORFALU)</t>
   </si>
   <si>
-    <t>Randomized Trial Evaluating Intervention of the Cancéropôle Nord-Ouest in the Development of Clinical Research in Non-Academic Health Institutions (ERNU)</t>
-  </si>
-  <si>
-    <t>Impact of Aspergillus on Chronic Obstructive Pulmonary Disease Evolution</t>
-  </si>
-  <si>
-    <t>Association Between Holter Electro Hysterogram (EHG) and Risk of Preterm Delivery in Women Hospitalized for Threatened Premature Delivery</t>
-  </si>
-  <si>
-    <t>Efficacy of Clarithromycin or Moxifloxacin Containing Regimen in 6 Months Sputum Conversion of Mycobacterium Xenopi</t>
-  </si>
-  <si>
-    <t>Hepatic Blood Flow Changes During Fluid Challenge Assessed by MRI in Volunteers Subjects: a Prospective Monocentric Study. PORTEAU Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of Advanced Glycation End-products (AGE) and the Erectile Dysfunction (DE) in Diabetic Patients</t>
-  </si>
-  <si>
-    <t>Evaluation of 4D Magnetic Resonance Flow Sequence at Hepatic Level</t>
-  </si>
-  <si>
-    <t>Patient Follow-up After Consultation in Emergency Department</t>
-  </si>
-  <si>
-    <t>Prevalence of Sleep Apnea Syndrome in Patients With Type 1 Diabetes (APT1)</t>
-  </si>
-  <si>
-    <t>Feasibility of Regional Lung Ventilation Imaging Using 3T MR Imaging With Ultrashort Echo Time (UTE) Pulse Sequences (PULMOREM Study)</t>
-  </si>
-  <si>
-    <t>Impact of Hyperoxia During Cardiopulmonary Bypass in the Occurrence of Cardiovascular Complications After Cardiac Surgery</t>
-  </si>
-  <si>
     <t>(1,3)-Béta-D-Glucan Levels at Diagnosis of Juvenile Idiopathic Arthritis and Its Correlation With Activity's Disease : a Cohort Sudy</t>
   </si>
   <si>
+    <t>CO-Rebreathing in Comparison to Isotopic Red Cell Volume Determination in the Diagnosis of Primitive and Secondary Polycythemia: a Multicentric Study. Co-Rebreathing for the Measurement of Total Red Cell Mass in Polycythemia.</t>
+  </si>
+  <si>
+    <t>Erythrocyte Transfusion Based on the Measurement of Central Venous Oxygen Saturation in Postoperative Cardiac Surgery: a Bicentric, Prospective Randomized Study</t>
+  </si>
+  <si>
     <t>Impact of Rumination on Affectivity After Physical Activity in Fibromyalgia</t>
   </si>
   <si>
     <t>Contribution of the Perfusion Scanner in the Prediction of the Tumor Control of Patients With Hepatocellular Carcinoma Treated With Sorafenib.</t>
   </si>
   <si>
-    <t>Erythrocyte Transfusion Based on the Measurement of Central Venous Oxygen Saturation in Postoperative Cardiac Surgery: a Bicentric, Prospective Randomized Study</t>
-  </si>
-  <si>
-    <t>CO-Rebreathing in Comparison to Isotopic Red Cell Volume Determination in the Diagnosis of Primitive and Secondary Polycythemia: a Multicentric Study. Co-Rebreathing for the Measurement of Total Red Cell Mass in Polycythemia.</t>
-  </si>
-  <si>
     <t>Self-estimates and Objective Measurement of Blood Alcohol Concentration in Patients With Alcohol Intoxication Presenting to an Emergency Department</t>
   </si>
   <si>
+    <t>Study of Comprehension and Execution of Medication Prescriptions Displayed on Touch-screens and Tablets in Parkinsonian Patients and Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Impact of VeinViewer® Vision to Guide Peripheral Venipuncture in Geriatrics</t>
+  </si>
+  <si>
     <t>Evaluation of Transperineal Ultrasound Technic for Diagnostic Shorted Cervical Length for Pregnant Women (2nd and 3rd Trimester) Compared to Endovaginal Technic (Gold Standard)</t>
   </si>
   <si>
+    <t>Prospective, Multicentric, Randomized on Two Arms, Controlled, by Cross-over, Pilot Study, in Order to Evaluate Disconfort Among Outpatients Using actiTENS for Neuropathic Pain vs TENS ECO 2.</t>
+  </si>
+  <si>
+    <t>Endoscopic Management of Fistulas Related to Sleeve Gastrectomy With Double Pigtail Stents According to the BARTOLI Technique : an Interventional Multicentric and Prospective Study.</t>
+  </si>
+  <si>
     <t>Medico-economic Evaluation of Sublingual PCA (Zalviso) Versus Oxycodone-PCA in the Management of Postoperative Pain. ''MEZO''</t>
   </si>
   <si>
-    <t>Endoscopic Management of Fistulas Related to Sleeve Gastrectomy With Double Pigtail Stents According to the BARTOLI Technique : an Interventional Multicentric and Prospective Study.</t>
-  </si>
-  <si>
-    <t>Prospective, Multicentric, Randomized on Two Arms, Controlled, by Cross-over, Pilot Study, in Order to Evaluate Disconfort Among Outpatients Using actiTENS for Neuropathic Pain vs TENS ECO 2.</t>
-  </si>
-  <si>
-    <t>Impact of VeinViewer® Vision to Guide Peripheral Venipuncture in Geriatrics</t>
-  </si>
-  <si>
-    <t>Study of Comprehension and Execution of Medication Prescriptions Displayed on Touch-screens and Tablets in Parkinsonian Patients and Healthy Volunteers</t>
+    <t>Lung Ultrasound Assessment of Fluid Overload in Haemodialysis Patients Using 8 Sites Score</t>
+  </si>
+  <si>
+    <t>Quantification, Analysis and Simulation of Facial Mimics Movements</t>
   </si>
   <si>
     <t>Efficacity and Safety of Metformin XR in CKD Stage 1 to 3</t>
   </si>
   <si>
-    <t>Quantification, Analysis and Simulation of Facial Mimics Movements</t>
-  </si>
-  <si>
-    <t>Lung Ultrasound Assessment of Fluid Overload in Haemodialysis Patients Using 8 Sites Score</t>
+    <t>Facial Emotion Recognition in Patients With Euthymic Bipolar Disorder I and II</t>
+  </si>
+  <si>
+    <t>Predictive Factors of Good Pulmonary Penetration of Antibiotics : AntiBiotics Dosage in Broncho-Alveolar Lavage</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics and Pleural Fluid Penetration of Amoxicillin and Clavulanic Acid in Patients With Pleural Infections</t>
+  </si>
+  <si>
+    <t>Feasibility Study of a Diary for Allogenic Hematopoietic Stem Cell Transplantation Patients and Families</t>
+  </si>
+  <si>
+    <t>Comparison of 250 ml Versus 500 ml of Fluid Challenge on Oxygen Consumption in Critical Care Patients: an Open Label Multicentre Prospective Study</t>
+  </si>
+  <si>
+    <t>Feasibility of Total Mastectomy in Ambulatory Care</t>
+  </si>
+  <si>
+    <t>Design of a Prototype Garment Adapted to Demented Elderly Subjects With Disturbing Behavioral Problems in the Management of Sphincter Disorders</t>
+  </si>
+  <si>
+    <t>Capillary Refill Time Calculated With a Video-assisted Method Has a Better Reproducibility Than Visual Method in Critically Ill Patients a Prospective Monocentric Study</t>
+  </si>
+  <si>
+    <t>Individualized Hemodynamic Optimization by Indirect Measurement of the Respiratory Quotient in Major Surgery: Prospective Randomized Multicentre Open-Label Study (OPHIQUE) Individualized Optimization by Indirect Measurement of the Respiratory Quotient</t>
+  </si>
+  <si>
+    <t>Interchangeability of Right Ventricle Longitudinal Shortening Fraction Measurements Performed by Trans-thoracic and Trans-esophageal Echocardiography in the Operating Room</t>
   </si>
   <si>
     <t>Extracellular Vesicles as Biomarkers for Chronic Renal Failure</t>
   </si>
   <si>
-    <t>Feasibility of Total Mastectomy in Ambulatory Care</t>
+    <t>4D Flow Cardiac MRI Velocity Mapping in Patients With Pulmonary Hypertension: Estimation of Pulmonary Arterial Pressure and Comparison With Right Heart Catheterization and Doppler Echocardiography</t>
+  </si>
+  <si>
+    <t>Kinetics of Serum β-D-glucan During Peritonitis With Candida in Resuscitation</t>
+  </si>
+  <si>
+    <t>Serratus Plain Block Versus Paravertebral Block Versus Serratus Plain Block and Paravertebral Block for Postoperative Pain Following Thoracoscopic Surgery</t>
+  </si>
+  <si>
+    <t>Relationship Between Alzheimer Disease and Diminution of the Three Macular Nervous Retinal Layers</t>
+  </si>
+  <si>
+    <t>Cell Free DNA Quantification in Patients With Endometriosis Followed Witd Medical Assistance to Procreation</t>
+  </si>
+  <si>
+    <t>Near Infrared Spectroscopy and Testicular Torsion in Children</t>
+  </si>
+  <si>
+    <t>Development of a Robotic Minimally Invasive Pathway for Cochlear Implantation</t>
+  </si>
+  <si>
+    <t>Treatment of COVID-19 by Nebulization of Inteferon Beta 1b Efficiency and Safety Study</t>
   </si>
   <si>
     <t>Evaluation of Prevalence of Sexuality Alteration in Women With an Abnormal Pap Test</t>
   </si>
   <si>
-    <t>Interchangeability of Right Ventricle Longitudinal Shortening Fraction Measurements Performed by Trans-thoracic and Trans-esophageal Echocardiography in the Operating Room</t>
-  </si>
-  <si>
-    <t>Treatment of COVID-19 by Nebulization of Inteferon Beta 1b Efficiency and Safety Study</t>
-  </si>
-  <si>
-    <t>Individualized Hemodynamic Optimization by Indirect Measurement of the Respiratory Quotient in Major Surgery: Prospective Randomized Multicentre Open-Label Study (OPHIQUE) Individualized Optimization by Indirect Measurement of the Respiratory Quotient</t>
-  </si>
-  <si>
-    <t>Predictive Factors of Good Pulmonary Penetration of Antibiotics : AntiBiotics Dosage in Broncho-Alveolar Lavage</t>
-  </si>
-  <si>
-    <t>Cell Free DNA Quantification in Patients With Endometriosis Followed Witd Medical Assistance to Procreation</t>
-  </si>
-  <si>
-    <t>Facial Emotion Recognition in Patients With Euthymic Bipolar Disorder I and II</t>
-  </si>
-  <si>
-    <t>Comparison of 250 ml Versus 500 ml of Fluid Challenge on Oxygen Consumption in Critical Care Patients: an Open Label Multicentre Prospective Study</t>
-  </si>
-  <si>
-    <t>Kinetics of Serum β-D-glucan During Peritonitis With Candida in Resuscitation</t>
-  </si>
-  <si>
-    <t>Capillary Refill Time Calculated With a Video-assisted Method Has a Better Reproducibility Than Visual Method in Critically Ill Patients a Prospective Monocentric Study</t>
-  </si>
-  <si>
-    <t>Relationship Between Alzheimer Disease and Diminution of the Three Macular Nervous Retinal Layers</t>
-  </si>
-  <si>
-    <t>4D Flow Cardiac MRI Velocity Mapping in Patients With Pulmonary Hypertension: Estimation of Pulmonary Arterial Pressure and Comparison With Right Heart Catheterization and Doppler Echocardiography</t>
-  </si>
-  <si>
-    <t>Near Infrared Spectroscopy and Testicular Torsion in Children</t>
-  </si>
-  <si>
-    <t>Pharmacokinetics and Pleural Fluid Penetration of Amoxicillin and Clavulanic Acid in Patients With Pleural Infections</t>
-  </si>
-  <si>
-    <t>Feasibility Study of a Diary for Allogenic Hematopoietic Stem Cell Transplantation Patients and Families</t>
-  </si>
-  <si>
-    <t>Serratus Plain Block Versus Paravertebral Block Versus Serratus Plain Block and Paravertebral Block for Postoperative Pain Following Thoracoscopic Surgery</t>
-  </si>
-  <si>
-    <t>Development of a Robotic Minimally Invasive Pathway for Cochlear Implantation</t>
-  </si>
-  <si>
-    <t>Design of a Prototype Garment Adapted to Demented Elderly Subjects With Disturbing Behavioral Problems in the Management of Sphincter Disorders</t>
-  </si>
-  <si>
     <t>Advanced DL-based T2w and DWI MR Sequences for Prostate Imaging</t>
   </si>
   <si>
     <t>Interest of Intravenous Cholangiography With Indocyanine Green, Compared to Contrast Cholangiography, in the Context of Laparoscopic Cholecystectomy for Grade 1 and 2 Acute Gallstone Cholecystitis: Prospective, Monocentric, Randomized Study</t>
-  </si>
-  <si>
-    <t>Comparison of the Bilateral Transversus Abdominis Plane (TAP) Block Versus Curare in Muscle Relaxation of the Abdominal Wall During Laparoscopic Digestive Surgery: Prospective Randomized Study</t>
   </si>
   <si>
     <t>Evaluation of plasma concentrations of intravenous lidocaine and epidural ropivacaine when used in combination in major abdominal surgery 
@@ -799,6 +796,9 @@
  Efficacité et tolérance de la metformine à diffusion prolongée (XR) chez le sujet diabétique dans les stades 1 à 3 d’insuffisance rénale chronique</t>
   </si>
   <si>
+    <t>Comparison of the Bilateral Transversus Abdominis Plane (TAP) Block Versus Curare in Muscle Relaxation of the Abdominal Wall During Laparoscopic Digestive Surgery: Prospective Randomized Study</t>
+  </si>
+  <si>
     <t>HAA-NAC</t>
   </si>
   <si>
@@ -814,12 +814,12 @@
     <t>ABCAL</t>
   </si>
   <si>
+    <t>MTM</t>
+  </si>
+  <si>
     <t>RIFIONA</t>
   </si>
   <si>
-    <t>MTM</t>
-  </si>
-  <si>
     <t>GASTRAMBU</t>
   </si>
   <si>
@@ -829,259 +829,259 @@
     <t>FRENCH</t>
   </si>
   <si>
+    <t>ROPI-LEVO</t>
+  </si>
+  <si>
+    <t>MTM-COLON-I</t>
+  </si>
+  <si>
+    <t>GPCBasedow</t>
+  </si>
+  <si>
     <t>Sophrodol-1</t>
   </si>
   <si>
     <t>MARCHOBESE</t>
   </si>
   <si>
-    <t>ROPI-LEVO</t>
-  </si>
-  <si>
-    <t>GPCBasedow</t>
-  </si>
-  <si>
-    <t>MTM-COLON-I</t>
-  </si>
-  <si>
     <t>PANNIV</t>
   </si>
   <si>
+    <t>PneumoTEP</t>
+  </si>
+  <si>
+    <t>CALCILUP</t>
+  </si>
+  <si>
     <t>REVENTIL</t>
   </si>
   <si>
+    <t>TEICOPLANIN</t>
+  </si>
+  <si>
     <t>MecoExpo</t>
   </si>
   <si>
-    <t>PneumoTEP</t>
+    <t>Blood-in-drape</t>
   </si>
   <si>
     <t>EPIC</t>
   </si>
   <si>
-    <t>CALCILUP</t>
-  </si>
-  <si>
-    <t>TEICOPLANIN</t>
-  </si>
-  <si>
-    <t>Blood-in-drape</t>
+    <t>LPP</t>
+  </si>
+  <si>
+    <t>GRECogVASC</t>
+  </si>
+  <si>
+    <t>APPENDAMBU</t>
+  </si>
+  <si>
+    <t>LAMVIRE</t>
+  </si>
+  <si>
+    <t>SNEAD</t>
+  </si>
+  <si>
+    <t>SAPL</t>
   </si>
   <si>
     <t>PincesChaude</t>
   </si>
   <si>
-    <t>SAPL</t>
-  </si>
-  <si>
-    <t>GRECogVASC</t>
-  </si>
-  <si>
-    <t>LAMVIRE</t>
-  </si>
-  <si>
     <t>BIOKID</t>
   </si>
   <si>
-    <t>SNEAD</t>
-  </si>
-  <si>
-    <t>LPP</t>
-  </si>
-  <si>
-    <t>APPENDAMBU</t>
+    <t>PREMAVOIX</t>
   </si>
   <si>
     <t>ETDT</t>
   </si>
   <si>
-    <t>PREMAVOIX</t>
+    <t>NNP-MULTIMODAL</t>
+  </si>
+  <si>
+    <t>MTM-COLON-II</t>
   </si>
   <si>
     <t>MONITRANS</t>
   </si>
   <si>
+    <t>PRFM-1</t>
+  </si>
+  <si>
+    <t>RIVAFAG</t>
+  </si>
+  <si>
+    <t>CELyPoR</t>
+  </si>
+  <si>
+    <t>Xeladys</t>
+  </si>
+  <si>
+    <t>NEXFIN</t>
+  </si>
+  <si>
     <t>SCP TCI NIRS</t>
   </si>
   <si>
-    <t>MTM-COLON-II</t>
-  </si>
-  <si>
-    <t>CELyPoR</t>
-  </si>
-  <si>
-    <t>Xeladys</t>
-  </si>
-  <si>
-    <t>NEXFIN</t>
-  </si>
-  <si>
-    <t>NNP-MULTIMODAL</t>
-  </si>
-  <si>
-    <t>RIVAFAG</t>
-  </si>
-  <si>
-    <t>PRFM-1</t>
+    <t>EETUV</t>
+  </si>
+  <si>
+    <t>COMPLISTAN</t>
+  </si>
+  <si>
+    <t>ANLUP</t>
+  </si>
+  <si>
+    <t>ANI</t>
+  </si>
+  <si>
+    <t>TISSEEL</t>
+  </si>
+  <si>
+    <t>MCSF-MYELOME</t>
   </si>
   <si>
     <t>NEUROSEV</t>
   </si>
   <si>
-    <t>ANLUP</t>
-  </si>
-  <si>
-    <t>COMPLISTAN</t>
-  </si>
-  <si>
-    <t>EETUV</t>
-  </si>
-  <si>
-    <t>ANI</t>
-  </si>
-  <si>
-    <t>MCSF-MYELOME</t>
-  </si>
-  <si>
-    <t>TISSEEL</t>
+    <t>CARDIOX</t>
+  </si>
+  <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>HEPAFLUX</t>
+  </si>
+  <si>
+    <t>CAMOMY</t>
+  </si>
+  <si>
+    <t>PULMOREM</t>
+  </si>
+  <si>
+    <t>AspergBPCO</t>
+  </si>
+  <si>
+    <t>ERNU</t>
+  </si>
+  <si>
+    <t>PORTEAU</t>
+  </si>
+  <si>
+    <t>APT1</t>
+  </si>
+  <si>
+    <t>APGADEPD</t>
   </si>
   <si>
     <t>ORFALU</t>
   </si>
   <si>
-    <t>ERNU</t>
-  </si>
-  <si>
-    <t>AspergBPCO</t>
-  </si>
-  <si>
-    <t>RACE</t>
-  </si>
-  <si>
-    <t>CAMOMY</t>
-  </si>
-  <si>
-    <t>PORTEAU</t>
-  </si>
-  <si>
-    <t>APGADEPD</t>
-  </si>
-  <si>
-    <t>HEPAFLUX</t>
-  </si>
-  <si>
-    <t>APT1</t>
-  </si>
-  <si>
-    <t>PULMOREM</t>
-  </si>
-  <si>
-    <t>CARDIOX</t>
-  </si>
-  <si>
     <t>BDG -JIA</t>
   </si>
   <si>
+    <t>Poly-CO</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
     <t>PRFM-3</t>
   </si>
   <si>
     <t>HCC-CTPerf</t>
   </si>
   <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>Poly-CO</t>
-  </si>
-  <si>
     <t>SEOBACED</t>
   </si>
   <si>
+    <t>TACTIPARK</t>
+  </si>
+  <si>
+    <t>VeinGER</t>
+  </si>
+  <si>
     <t>ECHO</t>
   </si>
   <si>
+    <t>QolTENS</t>
+  </si>
+  <si>
+    <t>bartoli</t>
+  </si>
+  <si>
     <t>MEZO</t>
   </si>
   <si>
-    <t>bartoli</t>
-  </si>
-  <si>
-    <t>QolTENS</t>
-  </si>
-  <si>
-    <t>VeinGER</t>
-  </si>
-  <si>
-    <t>TACTIPARK</t>
+    <t>EP8SH</t>
+  </si>
+  <si>
+    <t>SIMOVI-IRM</t>
   </si>
   <si>
     <t>METXR/CKD</t>
   </si>
   <si>
-    <t>SIMOVI-IRM</t>
-  </si>
-  <si>
-    <t>EP8SH</t>
+    <t>REF-BIP</t>
+  </si>
+  <si>
+    <t>ABBA</t>
+  </si>
+  <si>
+    <t>PK-plèvre</t>
+  </si>
+  <si>
+    <t>JACintHE</t>
+  </si>
+  <si>
+    <t>KOBIAS</t>
+  </si>
+  <si>
+    <t>AMASTEC</t>
+  </si>
+  <si>
+    <t>GERONESIE</t>
+  </si>
+  <si>
+    <t>EVITREC</t>
+  </si>
+  <si>
+    <t>OPHIQUE</t>
+  </si>
+  <si>
+    <t>RVLSBO</t>
   </si>
   <si>
     <t>VE-IRC</t>
   </si>
   <si>
-    <t>AMASTEC</t>
+    <t>HTPFLUW</t>
+  </si>
+  <si>
+    <t>PERIGLUC1</t>
+  </si>
+  <si>
+    <t>thoracoscopic</t>
+  </si>
+  <si>
+    <t>RETEVAL</t>
+  </si>
+  <si>
+    <t>ENDO-FIV</t>
+  </si>
+  <si>
+    <t>SPIRETTE</t>
+  </si>
+  <si>
+    <t>ROSA-IC</t>
+  </si>
+  <si>
+    <t>COV-NI</t>
   </si>
   <si>
     <t>EVASEF</t>
-  </si>
-  <si>
-    <t>RVLSBO</t>
-  </si>
-  <si>
-    <t>COV-NI</t>
-  </si>
-  <si>
-    <t>OPHIQUE</t>
-  </si>
-  <si>
-    <t>ABBA</t>
-  </si>
-  <si>
-    <t>ENDO-FIV</t>
-  </si>
-  <si>
-    <t>REF-BIP</t>
-  </si>
-  <si>
-    <t>KOBIAS</t>
-  </si>
-  <si>
-    <t>PERIGLUC1</t>
-  </si>
-  <si>
-    <t>EVITREC</t>
-  </si>
-  <si>
-    <t>RETEVAL</t>
-  </si>
-  <si>
-    <t>HTPFLUW</t>
-  </si>
-  <si>
-    <t>SPIRETTE</t>
-  </si>
-  <si>
-    <t>PK-plèvre</t>
-  </si>
-  <si>
-    <t>JACintHE</t>
-  </si>
-  <si>
-    <t>thoracoscopic</t>
-  </si>
-  <si>
-    <t>ROSA-IC</t>
-  </si>
-  <si>
-    <t>GERONESIE</t>
   </si>
   <si>
     <t>DLRPRO</t>
@@ -1107,10 +1107,10 @@
     <t>OTHER</t>
   </si>
   <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
     <t>PROCEDURE</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1654,19 +1654,16 @@
       <c r="G8" t="s">
         <v>153</v>
       </c>
-      <c r="H8" t="s">
-        <v>262</v>
-      </c>
       <c r="I8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1677,16 +1674,19 @@
       <c r="G9" t="s">
         <v>154</v>
       </c>
+      <c r="H9" t="s">
+        <v>262</v>
+      </c>
       <c r="I9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1697,19 +1697,16 @@
       <c r="G10" t="s">
         <v>155</v>
       </c>
-      <c r="H10" t="s">
-        <v>263</v>
-      </c>
       <c r="I10" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1719,6 +1716,9 @@
       </c>
       <c r="G11" t="s">
         <v>156</v>
+      </c>
+      <c r="H11" t="s">
+        <v>263</v>
       </c>
       <c r="I11" t="s">
         <v>363</v>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1853,7 +1853,7 @@
         <v>267</v>
       </c>
       <c r="I17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1922,7 +1922,7 @@
         <v>270</v>
       </c>
       <c r="I20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1968,7 +1968,7 @@
         <v>272</v>
       </c>
       <c r="I22" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1991,7 +1991,7 @@
         <v>273</v>
       </c>
       <c r="I23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2037,15 +2037,15 @@
         <v>275</v>
       </c>
       <c r="I25" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -2079,8 +2079,11 @@
       <c r="G27" t="s">
         <v>172</v>
       </c>
+      <c r="H27" t="s">
+        <v>277</v>
+      </c>
       <c r="I27" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2100,7 +2103,7 @@
         <v>173</v>
       </c>
       <c r="H28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I28" t="s">
         <v>361</v>
@@ -2108,10 +2111,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2123,10 +2126,10 @@
         <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2146,7 +2149,7 @@
         <v>175</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I30" t="s">
         <v>361</v>
@@ -2169,10 +2172,10 @@
         <v>176</v>
       </c>
       <c r="H31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I31" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2191,9 +2194,6 @@
       <c r="G32" t="s">
         <v>177</v>
       </c>
-      <c r="H32" t="s">
-        <v>281</v>
-      </c>
       <c r="I32" t="s">
         <v>360</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>282</v>
       </c>
       <c r="I33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2241,15 +2241,15 @@
         <v>283</v>
       </c>
       <c r="I34" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -2260,16 +2260,19 @@
       <c r="G35" t="s">
         <v>180</v>
       </c>
+      <c r="H35" t="s">
+        <v>284</v>
+      </c>
       <c r="I35" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -2281,18 +2284,18 @@
         <v>181</v>
       </c>
       <c r="H36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I36" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
@@ -2304,10 +2307,10 @@
         <v>182</v>
       </c>
       <c r="H37" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2326,19 +2329,16 @@
       <c r="G38" t="s">
         <v>183</v>
       </c>
-      <c r="H38" t="s">
-        <v>286</v>
-      </c>
       <c r="I38" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -2353,15 +2353,15 @@
         <v>287</v>
       </c>
       <c r="I39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
@@ -2376,7 +2376,7 @@
         <v>288</v>
       </c>
       <c r="I40" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2399,15 +2399,15 @@
         <v>289</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -2422,15 +2422,15 @@
         <v>290</v>
       </c>
       <c r="I42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -2445,15 +2445,15 @@
         <v>291</v>
       </c>
       <c r="I43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -2468,7 +2468,7 @@
         <v>292</v>
       </c>
       <c r="I44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2491,7 +2491,7 @@
         <v>293</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2514,7 +2514,7 @@
         <v>294</v>
       </c>
       <c r="I46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2533,8 +2533,11 @@
       <c r="G47" t="s">
         <v>192</v>
       </c>
+      <c r="H47" t="s">
+        <v>295</v>
+      </c>
       <c r="I47" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2554,10 +2557,10 @@
         <v>193</v>
       </c>
       <c r="H48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I48" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2567,8 +2570,8 @@
       <c r="B49" t="s">
         <v>13</v>
       </c>
-      <c r="D49" t="s">
-        <v>126</v>
+      <c r="C49" t="s">
+        <v>64</v>
       </c>
       <c r="F49" t="s">
         <v>139</v>
@@ -2576,8 +2579,8 @@
       <c r="G49" t="s">
         <v>194</v>
       </c>
-      <c r="H49" t="s">
-        <v>296</v>
+      <c r="I49" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2588,7 +2591,7 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F50" t="s">
         <v>139</v>
@@ -2600,7 +2603,7 @@
         <v>297</v>
       </c>
       <c r="I50" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2610,8 +2613,8 @@
       <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="C51" t="s">
-        <v>65</v>
+      <c r="D51" t="s">
+        <v>126</v>
       </c>
       <c r="F51" t="s">
         <v>139</v>
@@ -2622,9 +2625,6 @@
       <c r="H51" t="s">
         <v>298</v>
       </c>
-      <c r="I51" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
@@ -2646,7 +2646,7 @@
         <v>299</v>
       </c>
       <c r="I52" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2669,7 +2669,7 @@
         <v>300</v>
       </c>
       <c r="I53" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2692,7 +2692,7 @@
         <v>301</v>
       </c>
       <c r="I54" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2715,7 +2715,7 @@
         <v>302</v>
       </c>
       <c r="I55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2784,15 +2784,15 @@
         <v>305</v>
       </c>
       <c r="I58" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>73</v>
@@ -2807,7 +2807,7 @@
         <v>306</v>
       </c>
       <c r="I59" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2835,10 +2835,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>75</v>
@@ -2853,15 +2853,15 @@
         <v>308</v>
       </c>
       <c r="I61" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>76</v>
@@ -2876,7 +2876,7 @@
         <v>309</v>
       </c>
       <c r="I62" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2899,7 +2899,7 @@
         <v>310</v>
       </c>
       <c r="I63" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2922,7 +2922,7 @@
         <v>311</v>
       </c>
       <c r="I64" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2941,9 +2941,6 @@
       <c r="G65" t="s">
         <v>210</v>
       </c>
-      <c r="H65" t="s">
-        <v>312</v>
-      </c>
       <c r="I65" t="s">
         <v>361</v>
       </c>
@@ -2965,7 +2962,7 @@
         <v>211</v>
       </c>
       <c r="H66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I66" t="s">
         <v>360</v>
@@ -2988,10 +2985,10 @@
         <v>212</v>
       </c>
       <c r="H67" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I67" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3011,10 +3008,10 @@
         <v>213</v>
       </c>
       <c r="H68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I68" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3034,10 +3031,10 @@
         <v>214</v>
       </c>
       <c r="H69" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I69" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3056,8 +3053,11 @@
       <c r="G70" t="s">
         <v>215</v>
       </c>
+      <c r="H70" t="s">
+        <v>316</v>
+      </c>
       <c r="I70" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3108,10 +3108,10 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
@@ -3126,7 +3126,7 @@
         <v>319</v>
       </c>
       <c r="I73" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3177,10 +3177,10 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>90</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>91</v>
@@ -3310,7 +3310,7 @@
         <v>327</v>
       </c>
       <c r="I81" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3333,7 +3333,7 @@
         <v>328</v>
       </c>
       <c r="I82" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3356,7 +3356,7 @@
         <v>329</v>
       </c>
       <c r="I83" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3379,7 +3379,7 @@
         <v>330</v>
       </c>
       <c r="I84" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3402,7 +3402,7 @@
         <v>331</v>
       </c>
       <c r="I85" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3425,7 +3425,7 @@
         <v>332</v>
       </c>
       <c r="I86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3471,7 +3471,7 @@
         <v>334</v>
       </c>
       <c r="I88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3494,7 +3494,7 @@
         <v>335</v>
       </c>
       <c r="I89" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3517,7 +3517,7 @@
         <v>336</v>
       </c>
       <c r="I90" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3540,7 +3540,7 @@
         <v>337</v>
       </c>
       <c r="I91" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3563,7 +3563,7 @@
         <v>338</v>
       </c>
       <c r="I92" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3586,15 +3586,15 @@
         <v>339</v>
       </c>
       <c r="I93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
         <v>108</v>
@@ -3609,7 +3609,7 @@
         <v>340</v>
       </c>
       <c r="I94" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3632,7 +3632,7 @@
         <v>341</v>
       </c>
       <c r="I95" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3655,15 +3655,15 @@
         <v>342</v>
       </c>
       <c r="I96" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
         <v>111</v>
@@ -3678,7 +3678,7 @@
         <v>343</v>
       </c>
       <c r="I97" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3724,7 +3724,7 @@
         <v>345</v>
       </c>
       <c r="I99" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3770,7 +3770,7 @@
         <v>347</v>
       </c>
       <c r="I101" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3793,7 +3793,7 @@
         <v>348</v>
       </c>
       <c r="I102" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3816,7 +3816,7 @@
         <v>349</v>
       </c>
       <c r="I103" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3862,7 +3862,7 @@
         <v>351</v>
       </c>
       <c r="I105" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3885,7 +3885,7 @@
         <v>352</v>
       </c>
       <c r="I106" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3908,7 +3908,7 @@
         <v>353</v>
       </c>
       <c r="I107" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3977,7 +3977,7 @@
         <v>356</v>
       </c>
       <c r="I110" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3987,14 +3987,14 @@
       <c r="B111" t="s">
         <v>13</v>
       </c>
-      <c r="C111" t="s">
-        <v>125</v>
+      <c r="D111" t="s">
+        <v>127</v>
       </c>
       <c r="G111" t="s">
         <v>256</v>
       </c>
-      <c r="I111" t="s">
-        <v>360</v>
+      <c r="H111" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4005,47 +4005,47 @@
         <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G112" t="s">
         <v>257</v>
       </c>
       <c r="H112" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G113" t="s">
         <v>258</v>
       </c>
       <c r="H113" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" t="s">
-        <v>129</v>
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>125</v>
       </c>
       <c r="G114" t="s">
         <v>259</v>
       </c>
-      <c r="H114" t="s">
-        <v>359</v>
+      <c r="I114" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
+++ b/publipostage2/010567a58/liste_essais_cliniques_identifies_010567a58.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="383">
   <si>
     <t>statut</t>
   </si>
@@ -55,274 +55,295 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>NCT00552201</t>
   </si>
   <si>
     <t>NCT00567450</t>
   </si>
   <si>
-    <t>NCT00552201</t>
-  </si>
-  <si>
     <t>NCT01673412</t>
   </si>
   <si>
     <t>NCT01815775</t>
   </si>
   <si>
+    <t>NCT00815867</t>
+  </si>
+  <si>
     <t>NCT00863785</t>
   </si>
   <si>
-    <t>NCT00815867</t>
+    <t>NCT01219985</t>
   </si>
   <si>
     <t>NCT00396435</t>
   </si>
   <si>
-    <t>NCT01219985</t>
+    <t>NCT01539967</t>
   </si>
   <si>
     <t>NCT01502657</t>
   </si>
   <si>
-    <t>NCT01539967</t>
+    <t>NCT00769587</t>
+  </si>
+  <si>
+    <t>NCT01441557</t>
   </si>
   <si>
     <t>NCT01015417</t>
   </si>
   <si>
-    <t>NCT01441557</t>
-  </si>
-  <si>
-    <t>NCT00769587</t>
+    <t>NCT01513005</t>
   </si>
   <si>
     <t>NCT01879384</t>
   </si>
   <si>
+    <t>NCT01220843</t>
+  </si>
+  <si>
+    <t>NCT01339130</t>
+  </si>
+  <si>
     <t>NCT01727388</t>
   </si>
   <si>
-    <t>NCT01513005</t>
-  </si>
-  <si>
-    <t>NCT01339130</t>
-  </si>
-  <si>
-    <t>NCT01220843</t>
+    <t>NCT02167334</t>
+  </si>
+  <si>
+    <t>NCT01774682</t>
+  </si>
+  <si>
+    <t>NCT01786694</t>
   </si>
   <si>
     <t>NCT01935596</t>
   </si>
   <si>
-    <t>NCT01786694</t>
+    <t>NCT01628822</t>
   </si>
   <si>
     <t>NCT02798965</t>
   </si>
   <si>
-    <t>NCT01628822</t>
-  </si>
-  <si>
-    <t>NCT01774682</t>
-  </si>
-  <si>
-    <t>NCT02167334</t>
+    <t>NCT02799173</t>
   </si>
   <si>
     <t>NCT01812031</t>
   </si>
   <si>
-    <t>NCT02799173</t>
+    <t>NCT01651676</t>
   </si>
   <si>
     <t>NCT01573481</t>
   </si>
   <si>
+    <t>NCT02710448</t>
+  </si>
+  <si>
+    <t>NCT02421003</t>
+  </si>
+  <si>
     <t>NCT01815541</t>
   </si>
   <si>
     <t>NCT02899819</t>
   </si>
   <si>
-    <t>NCT02421003</t>
-  </si>
-  <si>
-    <t>NCT02710448</t>
-  </si>
-  <si>
-    <t>NCT01651676</t>
+    <t>NCT02894060</t>
+  </si>
+  <si>
+    <t>NCT01839435</t>
   </si>
   <si>
     <t>NCT02858999</t>
   </si>
   <si>
+    <t>NCT01819792</t>
+  </si>
+  <si>
+    <t>NCT02803645</t>
+  </si>
+  <si>
     <t>NCT01339195</t>
   </si>
   <si>
-    <t>NCT01839435</t>
-  </si>
-  <si>
-    <t>NCT01819792</t>
+    <t>NCT02887378</t>
+  </si>
+  <si>
+    <t>NCT02479529</t>
   </si>
   <si>
     <t>NCT01368094</t>
   </si>
   <si>
-    <t>NCT02479529</t>
-  </si>
-  <si>
-    <t>NCT02803645</t>
-  </si>
-  <si>
-    <t>NCT02887378</t>
-  </si>
-  <si>
-    <t>NCT02894060</t>
+    <t>NCT03118115</t>
+  </si>
+  <si>
+    <t>NCT01543321</t>
+  </si>
+  <si>
+    <t>NCT01306227</t>
+  </si>
+  <si>
+    <t>NCT02550496</t>
+  </si>
+  <si>
+    <t>NCT03133455</t>
+  </si>
+  <si>
+    <t>NCT01999634</t>
+  </si>
+  <si>
+    <t>NCT02795663</t>
+  </si>
+  <si>
+    <t>NCT02803671</t>
+  </si>
+  <si>
+    <t>NCT03111654</t>
+  </si>
+  <si>
+    <t>NCT03114579</t>
   </si>
   <si>
     <t>NCT02818595</t>
   </si>
   <si>
-    <t>NCT02550496</t>
-  </si>
-  <si>
-    <t>NCT02803671</t>
-  </si>
-  <si>
-    <t>NCT01999634</t>
-  </si>
-  <si>
-    <t>NCT03118115</t>
-  </si>
-  <si>
-    <t>NCT03133455</t>
-  </si>
-  <si>
-    <t>NCT01306227</t>
-  </si>
-  <si>
-    <t>NCT03111654</t>
-  </si>
-  <si>
-    <t>NCT01543321</t>
-  </si>
-  <si>
-    <t>NCT03114579</t>
-  </si>
-  <si>
-    <t>NCT02795663</t>
+    <t>NCT03114904</t>
+  </si>
+  <si>
+    <t>NCT03103698</t>
+  </si>
+  <si>
+    <t>NCT03031925</t>
   </si>
   <si>
     <t>NCT02422017</t>
   </si>
   <si>
+    <t>NCT01613664</t>
+  </si>
+  <si>
     <t>NCT03114930</t>
   </si>
   <si>
-    <t>NCT03031925</t>
-  </si>
-  <si>
-    <t>NCT03103698</t>
-  </si>
-  <si>
-    <t>NCT01613664</t>
-  </si>
-  <si>
     <t>NCT02800954</t>
   </si>
   <si>
-    <t>NCT03114904</t>
-  </si>
-  <si>
     <t>NCT02819739</t>
   </si>
   <si>
+    <t>NCT02770235</t>
+  </si>
+  <si>
+    <t>NCT02786056</t>
+  </si>
+  <si>
+    <t>NCT03646851</t>
+  </si>
+  <si>
+    <t>NCT01298336</t>
+  </si>
+  <si>
     <t>NCT03144141</t>
   </si>
   <si>
+    <t>NCT03506022</t>
+  </si>
+  <si>
+    <t>NCT03589261</t>
+  </si>
+  <si>
+    <t>NCT03117179</t>
+  </si>
+  <si>
     <t>NCT02821078</t>
   </si>
   <si>
-    <t>NCT03117179</t>
-  </si>
-  <si>
-    <t>NCT01298336</t>
-  </si>
-  <si>
-    <t>NCT02786056</t>
-  </si>
-  <si>
-    <t>NCT03646851</t>
-  </si>
-  <si>
     <t>NCT02765451</t>
   </si>
   <si>
-    <t>NCT03589261</t>
-  </si>
-  <si>
-    <t>NCT03506022</t>
-  </si>
-  <si>
-    <t>NCT02770235</t>
-  </si>
-  <si>
     <t>NCT03502460</t>
   </si>
   <si>
+    <t>NCT03998397</t>
+  </si>
+  <si>
+    <t>NCT03964285</t>
+  </si>
+  <si>
+    <t>NCT02963883</t>
+  </si>
+  <si>
+    <t>NCT03140332</t>
+  </si>
+  <si>
     <t>NCT03984669</t>
   </si>
   <si>
     <t>NCT03008642</t>
   </si>
   <si>
-    <t>NCT02963883</t>
-  </si>
-  <si>
-    <t>NCT03964285</t>
-  </si>
-  <si>
-    <t>NCT03140332</t>
-  </si>
-  <si>
-    <t>NCT03998397</t>
+    <t>NCT03139045</t>
+  </si>
+  <si>
+    <t>NCT04341597</t>
   </si>
   <si>
     <t>NCT03976505</t>
   </si>
   <si>
-    <t>NCT03139045</t>
-  </si>
-  <si>
-    <t>NCT04341597</t>
-  </si>
-  <si>
     <t>NCT03877016</t>
   </si>
   <si>
+    <t>NCT03882320</t>
+  </si>
+  <si>
     <t>NCT04049955</t>
   </si>
   <si>
-    <t>NCT03882320</t>
+    <t>NCT02895750</t>
+  </si>
+  <si>
+    <t>NCT02002572</t>
   </si>
   <si>
     <t>NCT05132036</t>
   </si>
   <si>
-    <t>NCT02002572</t>
-  </si>
-  <si>
-    <t>NCT02895750</t>
+    <t>NCT04700631</t>
+  </si>
+  <si>
+    <t>NCT04172818</t>
+  </si>
+  <si>
+    <t>NCT03852147</t>
+  </si>
+  <si>
+    <t>NCT04270136</t>
+  </si>
+  <si>
+    <t>NCT05701020</t>
+  </si>
+  <si>
+    <t>NCT04350502</t>
+  </si>
+  <si>
+    <t>NCT05404737</t>
   </si>
   <si>
     <t>NCT05922956</t>
@@ -331,58 +352,40 @@
     <t>NCT03927079</t>
   </si>
   <si>
-    <t>NCT04350502</t>
-  </si>
-  <si>
-    <t>NCT04172818</t>
+    <t>NCT05573659</t>
+  </si>
+  <si>
+    <t>NCT05815134</t>
+  </si>
+  <si>
+    <t>NCT05649839</t>
+  </si>
+  <si>
+    <t>NCT04222010</t>
+  </si>
+  <si>
+    <t>NCT04469491</t>
+  </si>
+  <si>
+    <t>NCT03140748</t>
   </si>
   <si>
     <t>NCT03874923</t>
   </si>
   <si>
-    <t>NCT04270136</t>
-  </si>
-  <si>
-    <t>NCT05649839</t>
-  </si>
-  <si>
-    <t>NCT05573659</t>
-  </si>
-  <si>
-    <t>NCT03852147</t>
-  </si>
-  <si>
-    <t>NCT05404737</t>
-  </si>
-  <si>
-    <t>NCT04700631</t>
+    <t>NCT04794634</t>
   </si>
   <si>
     <t>NCT05103189</t>
   </si>
   <si>
-    <t>NCT03140748</t>
-  </si>
-  <si>
-    <t>NCT04222010</t>
-  </si>
-  <si>
-    <t>NCT04794634</t>
-  </si>
-  <si>
-    <t>NCT05815134</t>
+    <t>NCT04048239</t>
   </si>
   <si>
     <t>NCT05769244</t>
   </si>
   <si>
-    <t>NCT04048239</t>
-  </si>
-  <si>
-    <t>NCT04469491</t>
-  </si>
-  <si>
-    <t>NCT05701020</t>
+    <t>NCT05762172</t>
   </si>
   <si>
     <t>NCT06094322</t>
@@ -391,21 +394,48 @@
     <t>NCT04103762</t>
   </si>
   <si>
+    <t>NCT05680259</t>
+  </si>
+  <si>
     <t>NCT01628952</t>
   </si>
   <si>
+    <t>2010-020872-49</t>
+  </si>
+  <si>
+    <t>2012-001207-20</t>
+  </si>
+  <si>
+    <t>2012-003690-25</t>
+  </si>
+  <si>
+    <t>2014-002707-22</t>
+  </si>
+  <si>
+    <t>2011-004211-23</t>
+  </si>
+  <si>
     <t>2015-000833-64</t>
   </si>
   <si>
+    <t>2014-005046-22</t>
+  </si>
+  <si>
+    <t>2014-001403-44</t>
+  </si>
+  <si>
+    <t>2020-001892-34</t>
+  </si>
+  <si>
     <t>2021-005508-37</t>
   </si>
   <si>
-    <t>2020-001892-34</t>
-  </si>
-  <si>
     <t>2016-001233-27</t>
   </si>
   <si>
+    <t>2012-000673-23</t>
+  </si>
+  <si>
     <t>2008</t>
   </si>
   <si>
@@ -457,265 +487,289 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Randomized Therapeutic Study of a Treatment by Tacrolimus Adapted or Not According to the Genotype of the Cytochrome P450 3A5 After Renal Transplantation</t>
+  </si>
+  <si>
     <t>Ropivacaine 0.75% vs Ropivacaine 0.75% Plus Mepivacaine 1.5% for Subgluteal Sciatic Bloc: a Prospective Double Blind Randomized Controlled Study</t>
   </si>
   <si>
-    <t>Randomized Therapeutic Study of a Treatment by Tacrolimus Adapted or Not According to the Genotype of the Cytochrome P450 3A5 After Renal Transplantation</t>
-  </si>
-  <si>
     <t>Research of Prognostic Factors Associated With Healing of Venous Leg Ulcers</t>
   </si>
   <si>
     <t>Predictive Value of Flow MRI in Normal Pressure Hydrocephalus Surgery</t>
   </si>
   <si>
+    <t>Effect of Epoetin Beta on Renal Function Within 30 Days Following a Kidney Transplant</t>
+  </si>
+  <si>
     <t>Treatment of Acute Severe Alcoholic Hepatitis With Corticoids Plus N Acetyl Cysteine Versus Corticoids Alone: a French Multicentre Randomized Controlled Study.</t>
   </si>
   <si>
-    <t>Effect of Epoetin Beta on Renal Function Within 30 Days Following a Kidney Transplant</t>
+    <t>Benefits Study of a Respiratory Gating Protocol for 18F-FDG PET: Application on the Liver</t>
   </si>
   <si>
     <t>Multicenter, Prospective, Randomised, Open-label Study, Evaluating the Effect of Two Levels of Haemoglobin on Quality of Life and Speed of Progression of Renal Insufficiency on Renal Transplanted Patients With Chronic Graft Dysfunction (CGD)</t>
   </si>
   <si>
-    <t>Benefits Study of a Respiratory Gating Protocol for 18F-FDG PET: Application on the Liver</t>
+    <t>Is the Residual Gastric Volume After Sleeve Gastrectomy an Objective Criterion to Adapt the Treatment Strategy After Failure?</t>
   </si>
   <si>
     <t>Ultrasound Guided Percutaneous Tracheostomy in the ICU</t>
   </si>
   <si>
-    <t>Is the Residual Gastric Volume After Sleeve Gastrectomy an Objective Criterion to Adapt the Treatment Strategy After Failure?</t>
+    <t>Phase II Study of Thalidomide in Mastocytosis</t>
+  </si>
+  <si>
+    <t>Pilot Study on the Usefulness of 3,4-diaminopyridine in the Treatment of Botulism</t>
   </si>
   <si>
     <t>Antibiotic Treatment Versus no Antibiotics in the Postoperative Acute Cholecystitis Low and Moderately Severe</t>
   </si>
   <si>
-    <t>Pilot Study on the Usefulness of 3,4-diaminopyridine in the Treatment of Botulism</t>
-  </si>
-  <si>
-    <t>Phase II Study of Thalidomide in Mastocytosis</t>
+    <t>Feasibility of Day Case Management by Laparoscopic Sleeve Gastrectomy for Obesity: a Pilot Study</t>
   </si>
   <si>
     <t>Feasibility of Monitoring of Bone Free Flaps With Microdialysis Catheter Directly Positioned in Bone Tissue</t>
   </si>
   <si>
+    <t>Randomized Placebo Controlled Double-blind Trial in CKD Patients Not on Dialysis to Evaluate the Effect of Sevelamer Carbonate in the Control of FGF-23 Serum Levels and Its Consequences in the Evolution of PTH, Calcitriol and Mineral Metabolism Parameters Levels</t>
+  </si>
+  <si>
+    <t>Assessment of Social-emotional Functioning in Stroke, Frontotemporal Dementia, Alzheimer and Parkinson Diseases</t>
+  </si>
+  <si>
     <t>Prospective Randomized Study Comparing the Results of Digital Rectal Examination in the Supine and Lateral Decubitus</t>
   </si>
   <si>
-    <t>Feasibility of Day Case Management by Laparoscopic Sleeve Gastrectomy for Obesity: a Pilot Study</t>
-  </si>
-  <si>
-    <t>Assessment of Social-emotional Functioning in Stroke, Frontotemporal Dementia, Alzheimer and Parkinson Diseases</t>
-  </si>
-  <si>
-    <t>Randomized Placebo Controlled Double-blind Trial in CKD Patients Not on Dialysis to Evaluate the Effect of Sevelamer Carbonate in the Control of FGF-23 Serum Levels and Its Consequences in the Evolution of PTH, Calcitriol and Mineral Metabolism Parameters Levels</t>
+    <t>Non Invasive Ventilation (NIV) Versus Spontaneous Breathing for Preoxygenation During Ear, Nose, and Throat (ENT) Panendoscopy. A Controlled, Prospective, Randomized Study.</t>
+  </si>
+  <si>
+    <t>Does the Sleeve Gastrectomy Improve the Kinematics of Obese Patients Perambulation ?</t>
+  </si>
+  <si>
+    <t>Feasibility of Microdialysis by Laparoscopy</t>
   </si>
   <si>
     <t>Comparative Study of the Effects of Two Local Anesthetics Administered Intrathecally: 0.5% Levobupivacaine and Ropivacaine 0.5%</t>
   </si>
   <si>
-    <t>Feasibility of Microdialysis by Laparoscopy</t>
+    <t>Pilot Study, Prospective, Single Center,Randomized, Single Blind, Evaluating the Efficacy of Relaxation to 12 Weeks Against Placebo, in the Overall Care Chronic Pain in Patients With Fibromyalgia</t>
   </si>
   <si>
     <t>Prevalence of Circulating Parvovirus Genome in Recently Diagnosed Graves' Disease: a Case-control Study</t>
   </si>
   <si>
-    <t>Pilot Study, Prospective, Single Center,Randomized, Single Blind, Evaluating the Efficacy of Relaxation to 12 Weeks Against Placebo, in the Overall Care Chronic Pain in Patients With Fibromyalgia</t>
-  </si>
-  <si>
-    <t>Does the Sleeve Gastrectomy Improve the Kinematics of Obese Patients Perambulation ?</t>
-  </si>
-  <si>
-    <t>Non Invasive Ventilation (NIV) Versus Spontaneous Breathing for Preoxygenation During Ear, Nose, and Throat (ENT) Panendoscopy. A Controlled, Prospective, Randomized Study.</t>
+    <t>Determination of the RANKL/Osteoprotegerin Ratio in Patients With Systemic Lupus Erythematosus. Role in Osteoporosis and Cardiovascular Calcification</t>
   </si>
   <si>
     <t>Benefits Study of a Respiratory Gating Protocol for Positron Emission Tomography: Application on the Lungs</t>
   </si>
   <si>
-    <t>Determination of the RANKL/Osteoprotegerin Ratio in Patients With Systemic Lupus Erythematosus. Role in Osteoporosis and Cardiovascular Calcification</t>
+    <t>Evaluation of the VQ11 Auto-questionnaire of Quality of Life in Pneumology Investigation, During the Implementation of a Long-acting Bronchodilator Treatment of Patients With COPD.</t>
   </si>
   <si>
     <t>Pressure Controlled Ventilation Versus Pressure Support Ventilation During the Night: New Strategy of Mechanical Ventilation Weaning?</t>
   </si>
   <si>
+    <t>May Metformin be Used in Renal Failure?</t>
+  </si>
+  <si>
+    <t>Exploratory Study, Prospective, of Volume, Composition and Bacteriology of the Recovered Blood of Multi-perforated Catheter Inserted in the Drapes Thickness of Incisional Sternal Area During Heart Surgery</t>
+  </si>
+  <si>
     <t>Administration of Subcutaneous Teicoplanin in the Treatment of Osteoarticular Infections: Tolerance Study</t>
   </si>
   <si>
     <t>MecoExpo Study Protocol</t>
   </si>
   <si>
-    <t>Exploratory Study, Prospective, of Volume, Composition and Bacteriology of the Recovered Blood of Multi-perforated Catheter Inserted in the Drapes Thickness of Incisional Sternal Area During Heart Surgery</t>
-  </si>
-  <si>
-    <t>May Metformin be Used in Renal Failure?</t>
-  </si>
-  <si>
-    <t>Evaluation of the VQ11 Auto-questionnaire of Quality of Life in Pneumology Investigation, During the Implementation of a Long-acting Bronchodilator Treatment of Patients With COPD.</t>
+    <t>A Study of Immunological Biomarkers as Predictors of Cardiovascular Events</t>
+  </si>
+  <si>
+    <t>PROSPECTIVE EVALUATION OF OUTPATIENT APPENDECTOMY FOR NON COMPLICATED ACUTE APPENDICITIS: Intention-to-treat Study</t>
   </si>
   <si>
     <t>Treatment of Primary Plasma Cell Leukaemia in Subjects Under the Age of 70: Phase II Multicentre Study</t>
   </si>
   <si>
+    <t>Incidence of Respiratory Viral Infections During AML Induction and Consolidation Chemotherapy</t>
+  </si>
+  <si>
+    <t>Clinical Significance of Antiphospholipid Antibodies in Healthy Subjects: Study of Their Association With Cardiovascular Risk Factors, Markers of Arterial Inflammation and Markers of Oxidative Stress</t>
+  </si>
+  <si>
     <t>Post-stroke Cognitive Impairment and Dementia: Frequency and Anatomical Correlates With the French Version of the National Institute of Neurological Disorders and Stroke (NINDS)-Canadian Stroke Network Battery</t>
   </si>
   <si>
-    <t>PROSPECTIVE EVALUATION OF OUTPATIENT APPENDECTOMY FOR NON COMPLICATED ACUTE APPENDICITIS: Intention-to-treat Study</t>
-  </si>
-  <si>
-    <t>Incidence of Respiratory Viral Infections During AML Induction and Consolidation Chemotherapy</t>
+    <t>Protocol for Anatomopathologic Analysis of Biopsies Using Hot Clamps</t>
+  </si>
+  <si>
+    <t>Weaning of Norepinephrine Guided by the Dynamic Arterial Compliance in Cardiac Surgery Post Operative.</t>
   </si>
   <si>
     <t>Early (4 Days) Versus Standard Drainage Removal of the Abdominal Cavity After Pancreaticoduodenectomy- - A Randomized Multicenter Study</t>
   </si>
   <si>
-    <t>Weaning of Norepinephrine Guided by the Dynamic Arterial Compliance in Cardiac Surgery Post Operative.</t>
-  </si>
-  <si>
-    <t>Clinical Significance of Antiphospholipid Antibodies in Healthy Subjects: Study of Their Association With Cardiovascular Risk Factors, Markers of Arterial Inflammation and Markers of Oxidative Stress</t>
-  </si>
-  <si>
-    <t>Protocol for Anatomopathologic Analysis of Biopsies Using Hot Clamps</t>
-  </si>
-  <si>
-    <t>A Study of Immunological Biomarkers as Predictors of Cardiovascular Events</t>
+    <t>Bioimpedance Variation of Free Flap for After Clamping - MONITRANS</t>
+  </si>
+  <si>
+    <t>Study of Efficacy and Acceptability of Tetrabenazine in the Late Dyskinetic Syndrome With Neuroleptics: A Randomized, Parallel Group, Double-blind Placebo Controlled Multicentre Trial</t>
+  </si>
+  <si>
+    <t>L-Thyroxine Supplementation for Preterm Newborns Less Than 32 Weeks of Gestation With Transient Hypothyroxinemia of Prematurity: a Prospective Randomized Double-blind Trial</t>
+  </si>
+  <si>
+    <t>Evaluation of Trichoscopy in the Diagnosis of Tinea Capitis. Prospective, Multicenter Study (ETDT)</t>
+  </si>
+  <si>
+    <t>Repetitive Thoughts in Fibromyalgia: Impact of Rumination on the Emotional and Cognitive Dimensions of Fibromyalgia</t>
+  </si>
+  <si>
+    <t>Evaluation of Microdialysis to Monitor Postoperative Outcomes After Proctectomy</t>
+  </si>
+  <si>
+    <t>Deep Brain Stimulation and Parkinson's Disease: Analysis of the Modifications of the Cortical Activation During Driving Tasks and During Tasks Involving the Control of the Impulses by Means of the Optical Imaging and of the Technique of Delay Discounting Task</t>
+  </si>
+  <si>
+    <t>Analysis of the Impact of Patent Ductus Arteriosus on Brain Function in Preterm Neonates: Multimodal Approach Integrating EEG-NIRS, Ultrasound and Clinical Data</t>
+  </si>
+  <si>
+    <t>Comparaison de trois biomédicaments en termes d’évolution des sous-populations lymphocytaires régulatrices et pro-inflammatoires chez des patients atteints de polyarthrite rhumatoïde.</t>
+  </si>
+  <si>
+    <t>A Pilot Study on the Prevention of the Vascular RISK Related to Atrial Fibrillation After Intracranial Hemorrhage by Closing the Left Auricle</t>
+  </si>
+  <si>
+    <t>Evaluation of the Measurement of Cardiac Output by the NEXFIN HD Monitor in Peroperative</t>
   </si>
   <si>
     <t>Development of Maternal Voice Recognition in Preterm Neonates</t>
   </si>
   <si>
-    <t>Evaluation of Trichoscopy in the Diagnosis of Tinea Capitis. Prospective, Multicenter Study (ETDT)</t>
-  </si>
-  <si>
-    <t>Analysis of the Impact of Patent Ductus Arteriosus on Brain Function in Preterm Neonates: Multimodal Approach Integrating EEG-NIRS, Ultrasound and Clinical Data</t>
-  </si>
-  <si>
-    <t>Evaluation of Microdialysis to Monitor Postoperative Outcomes After Proctectomy</t>
-  </si>
-  <si>
-    <t>Bioimpedance Variation of Free Flap for After Clamping - MONITRANS</t>
-  </si>
-  <si>
-    <t>Repetitive Thoughts in Fibromyalgia: Impact of Rumination on the Emotional and Cognitive Dimensions of Fibromyalgia</t>
-  </si>
-  <si>
-    <t>L-Thyroxine Supplementation for Preterm Newborns Less Than 32 Weeks of Gestation With Transient Hypothyroxinemia of Prematurity: a Prospective Randomized Double-blind Trial</t>
-  </si>
-  <si>
-    <t>A Pilot Study on the Prevention of the Vascular RISK Related to Atrial Fibrillation After Intracranial Hemorrhage by Closing the Left Auricle</t>
-  </si>
-  <si>
-    <t>Comparaison de trois biomédicaments en termes d’évolution des sous-populations lymphocytaires régulatrices et pro-inflammatoires chez des patients atteints de polyarthrite rhumatoïde.</t>
-  </si>
-  <si>
-    <t>Study of Efficacy and Acceptability of Tetrabenazine in the Late Dyskinetic Syndrome With Neuroleptics: A Randomized, Parallel Group, Double-blind Placebo Controlled Multicentre Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of the Measurement of Cardiac Output by the NEXFIN HD Monitor in Peroperative</t>
-  </si>
-  <si>
-    <t>Deep Brain Stimulation and Parkinson's Disease: Analysis of the Modifications of the Cortical Activation During Driving Tasks and During Tasks Involving the Control of the Impulses by Means of the Optical Imaging and of the Technique of Delay Discounting Task</t>
+    <t>Comparison of the Efficacy of a Protocol for the Withdrawal of Neurosedation From the Usual Strategy in Cerebroses: Randomized Controlled Trial.</t>
+  </si>
+  <si>
+    <t>The Interest of the ANI in the Monitoring of Peroperative Analgesia in Bariatric Surgery: a Randomized Single Blind Study.</t>
+  </si>
+  <si>
+    <t>Detection of Annexin A2 in Systemic Lupus Erythematosus</t>
   </si>
   <si>
     <t>Topical Timolol Benefit in Venous Ulcers</t>
   </si>
   <si>
+    <t>Randomized Prospective Clinical Study Evaluating the Usefulness of Fibrin Glue (TISSEEL® KIT) to Prevent Gastric Fistula, Intra Abdominal Haemorrhage and Intra Abdominal Loco Regional Collections After Laparoscopic Sleeve Gastrectomy</t>
+  </si>
+  <si>
     <t>Study of the Prevalence of Complications Occurring in the Mother-newborn Couple During the First Month After Returning Home, Since the Introduction of Standard Outpatients (According to HAS 2014 Recommendations) at the Amiens-Picardie University Hospital</t>
   </si>
   <si>
-    <t>Detection of Annexin A2 in Systemic Lupus Erythematosus</t>
-  </si>
-  <si>
-    <t>The Interest of the ANI in the Monitoring of Peroperative Analgesia in Bariatric Surgery: a Randomized Single Blind Study.</t>
-  </si>
-  <si>
-    <t>Randomized Prospective Clinical Study Evaluating the Usefulness of Fibrin Glue (TISSEEL® KIT) to Prevent Gastric Fistula, Intra Abdominal Haemorrhage and Intra Abdominal Loco Regional Collections After Laparoscopic Sleeve Gastrectomy</t>
-  </si>
-  <si>
     <t>Value of Macrophage-Colony Stimulating Factor as a New Marker of Bone Lesions in Multiple Myeloma</t>
   </si>
   <si>
-    <t>Comparison of the Efficacy of a Protocol for the Withdrawal of Neurosedation From the Usual Strategy in Cerebroses: Randomized Controlled Trial.</t>
-  </si>
-  <si>
     <t>Impact of Hyperoxia During Cardiopulmonary Bypass in the Occurrence of Cardiovascular Complications After Cardiac Surgery</t>
   </si>
   <si>
+    <t>Evaluation of Advanced Glycation End-products (AGE) and the Erectile Dysfunction (DE) in Diabetic Patients</t>
+  </si>
+  <si>
+    <t>Feasibility of Regional Lung Ventilation Imaging Using 3T MR Imaging With Ultrashort Echo Time (UTE) Pulse Sequences (PULMOREM Study)</t>
+  </si>
+  <si>
+    <t>Impact of Aspergillus on Chronic Obstructive Pulmonary Disease Evolution</t>
+  </si>
+  <si>
+    <t>Efficacy of Clarithromycin or Moxifloxacin Containing Regimen in 6 Months Sputum Conversion of Mycobacterium Xenopi</t>
+  </si>
+  <si>
     <t>Association Between Holter Electro Hysterogram (EHG) and Risk of Preterm Delivery in Women Hospitalized for Threatened Premature Delivery</t>
   </si>
   <si>
+    <t>Prevalence of Sleep Apnea Syndrome in Patients With Type 1 Diabetes (APT1)</t>
+  </si>
+  <si>
+    <t>Hepatic Blood Flow Changes During Fluid Challenge Assessed by MRI in Volunteers Subjects: a Prospective Monocentric Study. PORTEAU Trial</t>
+  </si>
+  <si>
+    <t>Patient Follow-up After Consultation in Emergency Department</t>
+  </si>
+  <si>
     <t>Evaluation of 4D Magnetic Resonance Flow Sequence at Hepatic Level</t>
   </si>
   <si>
-    <t>Patient Follow-up After Consultation in Emergency Department</t>
-  </si>
-  <si>
-    <t>Efficacy of Clarithromycin or Moxifloxacin Containing Regimen in 6 Months Sputum Conversion of Mycobacterium Xenopi</t>
-  </si>
-  <si>
-    <t>Feasibility of Regional Lung Ventilation Imaging Using 3T MR Imaging With Ultrashort Echo Time (UTE) Pulse Sequences (PULMOREM Study)</t>
-  </si>
-  <si>
-    <t>Impact of Aspergillus on Chronic Obstructive Pulmonary Disease Evolution</t>
-  </si>
-  <si>
     <t>Randomized Trial Evaluating Intervention of the Cancéropôle Nord-Ouest in the Development of Clinical Research in Non-Academic Health Institutions (ERNU)</t>
   </si>
   <si>
-    <t>Hepatic Blood Flow Changes During Fluid Challenge Assessed by MRI in Volunteers Subjects: a Prospective Monocentric Study. PORTEAU Trial</t>
-  </si>
-  <si>
-    <t>Prevalence of Sleep Apnea Syndrome in Patients With Type 1 Diabetes (APT1)</t>
-  </si>
-  <si>
-    <t>Evaluation of Advanced Glycation End-products (AGE) and the Erectile Dysfunction (DE) in Diabetic Patients</t>
-  </si>
-  <si>
     <t>Fluid Administration Limited by Lung Ultrasonography in the Operating Room: Correlation to Stroke Volume Variation (ORFALU)</t>
   </si>
   <si>
+    <t>Self-estimates and Objective Measurement of Blood Alcohol Concentration in Patients With Alcohol Intoxication Presenting to an Emergency Department</t>
+  </si>
+  <si>
+    <t>Impact of Rumination on Affectivity After Physical Activity in Fibromyalgia</t>
+  </si>
+  <si>
+    <t>Erythrocyte Transfusion Based on the Measurement of Central Venous Oxygen Saturation in Postoperative Cardiac Surgery: a Bicentric, Prospective Randomized Study</t>
+  </si>
+  <si>
+    <t>Contribution of the Perfusion Scanner in the Prediction of the Tumor Control of Patients With Hepatocellular Carcinoma Treated With Sorafenib.</t>
+  </si>
+  <si>
     <t>(1,3)-Béta-D-Glucan Levels at Diagnosis of Juvenile Idiopathic Arthritis and Its Correlation With Activity's Disease : a Cohort Sudy</t>
   </si>
   <si>
     <t>CO-Rebreathing in Comparison to Isotopic Red Cell Volume Determination in the Diagnosis of Primitive and Secondary Polycythemia: a Multicentric Study. Co-Rebreathing for the Measurement of Total Red Cell Mass in Polycythemia.</t>
   </si>
   <si>
-    <t>Erythrocyte Transfusion Based on the Measurement of Central Venous Oxygen Saturation in Postoperative Cardiac Surgery: a Bicentric, Prospective Randomized Study</t>
-  </si>
-  <si>
-    <t>Impact of Rumination on Affectivity After Physical Activity in Fibromyalgia</t>
-  </si>
-  <si>
-    <t>Contribution of the Perfusion Scanner in the Prediction of the Tumor Control of Patients With Hepatocellular Carcinoma Treated With Sorafenib.</t>
-  </si>
-  <si>
-    <t>Self-estimates and Objective Measurement of Blood Alcohol Concentration in Patients With Alcohol Intoxication Presenting to an Emergency Department</t>
+    <t>Impact of VeinViewer® Vision to Guide Peripheral Venipuncture in Geriatrics</t>
+  </si>
+  <si>
+    <t>Evaluation of Transperineal Ultrasound Technic for Diagnostic Shorted Cervical Length for Pregnant Women (2nd and 3rd Trimester) Compared to Endovaginal Technic (Gold Standard)</t>
   </si>
   <si>
     <t>Study of Comprehension and Execution of Medication Prescriptions Displayed on Touch-screens and Tablets in Parkinsonian Patients and Healthy Volunteers</t>
   </si>
   <si>
-    <t>Impact of VeinViewer® Vision to Guide Peripheral Venipuncture in Geriatrics</t>
-  </si>
-  <si>
-    <t>Evaluation of Transperineal Ultrasound Technic for Diagnostic Shorted Cervical Length for Pregnant Women (2nd and 3rd Trimester) Compared to Endovaginal Technic (Gold Standard)</t>
-  </si>
-  <si>
     <t>Prospective, Multicentric, Randomized on Two Arms, Controlled, by Cross-over, Pilot Study, in Order to Evaluate Disconfort Among Outpatients Using actiTENS for Neuropathic Pain vs TENS ECO 2.</t>
   </si>
   <si>
+    <t>Medico-economic Evaluation of Sublingual PCA (Zalviso) Versus Oxycodone-PCA in the Management of Postoperative Pain. ''MEZO''</t>
+  </si>
+  <si>
     <t>Endoscopic Management of Fistulas Related to Sleeve Gastrectomy With Double Pigtail Stents According to the BARTOLI Technique : an Interventional Multicentric and Prospective Study.</t>
   </si>
   <si>
-    <t>Medico-economic Evaluation of Sublingual PCA (Zalviso) Versus Oxycodone-PCA in the Management of Postoperative Pain. ''MEZO''</t>
+    <t>Efficacity and Safety of Metformin XR in CKD Stage 1 to 3</t>
+  </si>
+  <si>
+    <t>Quantification, Analysis and Simulation of Facial Mimics Movements</t>
   </si>
   <si>
     <t>Lung Ultrasound Assessment of Fluid Overload in Haemodialysis Patients Using 8 Sites Score</t>
   </si>
   <si>
-    <t>Quantification, Analysis and Simulation of Facial Mimics Movements</t>
-  </si>
-  <si>
-    <t>Efficacity and Safety of Metformin XR in CKD Stage 1 to 3</t>
+    <t>Extracellular Vesicles as Biomarkers for Chronic Renal Failure</t>
+  </si>
+  <si>
+    <t>Feasibility Study of a Diary for Allogenic Hematopoietic Stem Cell Transplantation Patients and Families</t>
+  </si>
+  <si>
+    <t>Individualized Hemodynamic Optimization by Indirect Measurement of the Respiratory Quotient in Major Surgery: Prospective Randomized Multicentre Open-Label Study (OPHIQUE) Individualized Optimization by Indirect Measurement of the Respiratory Quotient</t>
+  </si>
+  <si>
+    <t>Feasibility of Total Mastectomy in Ambulatory Care</t>
+  </si>
+  <si>
+    <t>Evaluation of Prevalence of Sexuality Alteration in Women With an Abnormal Pap Test</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics and Pleural Fluid Penetration of Amoxicillin and Clavulanic Acid in Patients With Pleural Infections</t>
+  </si>
+  <si>
+    <t>Interchangeability of Right Ventricle Longitudinal Shortening Fraction Measurements Performed by Trans-thoracic and Trans-esophageal Echocardiography in the Operating Room</t>
   </si>
   <si>
     <t>Facial Emotion Recognition in Patients With Euthymic Bipolar Disorder I and II</t>
@@ -724,74 +778,59 @@
     <t>Predictive Factors of Good Pulmonary Penetration of Antibiotics : AntiBiotics Dosage in Broncho-Alveolar Lavage</t>
   </si>
   <si>
-    <t>Pharmacokinetics and Pleural Fluid Penetration of Amoxicillin and Clavulanic Acid in Patients With Pleural Infections</t>
-  </si>
-  <si>
-    <t>Feasibility Study of a Diary for Allogenic Hematopoietic Stem Cell Transplantation Patients and Families</t>
+    <t>Capillary Refill Time Calculated With a Video-assisted Method Has a Better Reproducibility Than Visual Method in Critically Ill Patients a Prospective Monocentric Study</t>
+  </si>
+  <si>
+    <t>Cell Free DNA Quantification in Patients With Endometriosis Followed Witd Medical Assistance to Procreation</t>
+  </si>
+  <si>
+    <t>Design of a Prototype Garment Adapted to Demented Elderly Subjects With Disturbing Behavioral Problems in the Management of Sphincter Disorders</t>
+  </si>
+  <si>
+    <t>Serratus Plain Block Versus Paravertebral Block Versus Serratus Plain Block and Paravertebral Block for Postoperative Pain Following Thoracoscopic Surgery</t>
+  </si>
+  <si>
+    <t>Treatment of COVID-19 by Nebulization of Inteferon Beta 1b Efficiency and Safety Study</t>
+  </si>
+  <si>
+    <t>Kinetics of Serum β-D-glucan During Peritonitis With Candida in Resuscitation</t>
   </si>
   <si>
     <t>Comparison of 250 ml Versus 500 ml of Fluid Challenge on Oxygen Consumption in Critical Care Patients: an Open Label Multicentre Prospective Study</t>
   </si>
   <si>
-    <t>Feasibility of Total Mastectomy in Ambulatory Care</t>
-  </si>
-  <si>
-    <t>Design of a Prototype Garment Adapted to Demented Elderly Subjects With Disturbing Behavioral Problems in the Management of Sphincter Disorders</t>
-  </si>
-  <si>
-    <t>Capillary Refill Time Calculated With a Video-assisted Method Has a Better Reproducibility Than Visual Method in Critically Ill Patients a Prospective Monocentric Study</t>
-  </si>
-  <si>
-    <t>Individualized Hemodynamic Optimization by Indirect Measurement of the Respiratory Quotient in Major Surgery: Prospective Randomized Multicentre Open-Label Study (OPHIQUE) Individualized Optimization by Indirect Measurement of the Respiratory Quotient</t>
-  </si>
-  <si>
-    <t>Interchangeability of Right Ventricle Longitudinal Shortening Fraction Measurements Performed by Trans-thoracic and Trans-esophageal Echocardiography in the Operating Room</t>
-  </si>
-  <si>
-    <t>Extracellular Vesicles as Biomarkers for Chronic Renal Failure</t>
+    <t>Relationship Between Alzheimer Disease and Diminution of the Three Macular Nervous Retinal Layers</t>
   </si>
   <si>
     <t>4D Flow Cardiac MRI Velocity Mapping in Patients With Pulmonary Hypertension: Estimation of Pulmonary Arterial Pressure and Comparison With Right Heart Catheterization and Doppler Echocardiography</t>
   </si>
   <si>
-    <t>Kinetics of Serum β-D-glucan During Peritonitis With Candida in Resuscitation</t>
-  </si>
-  <si>
-    <t>Serratus Plain Block Versus Paravertebral Block Versus Serratus Plain Block and Paravertebral Block for Postoperative Pain Following Thoracoscopic Surgery</t>
-  </si>
-  <si>
-    <t>Relationship Between Alzheimer Disease and Diminution of the Three Macular Nervous Retinal Layers</t>
-  </si>
-  <si>
-    <t>Cell Free DNA Quantification in Patients With Endometriosis Followed Witd Medical Assistance to Procreation</t>
+    <t>Development of a Robotic Minimally Invasive Pathway for Cochlear Implantation</t>
   </si>
   <si>
     <t>Near Infrared Spectroscopy and Testicular Torsion in Children</t>
   </si>
   <si>
-    <t>Development of a Robotic Minimally Invasive Pathway for Cochlear Implantation</t>
-  </si>
-  <si>
-    <t>Treatment of COVID-19 by Nebulization of Inteferon Beta 1b Efficiency and Safety Study</t>
-  </si>
-  <si>
-    <t>Evaluation of Prevalence of Sexuality Alteration in Women With an Abnormal Pap Test</t>
+    <t>Interest of the Early Dynamic F-DOPA PET Examination for Differential Diagnosis Between Recurrence and Radionecrosis of Brain Metastasis</t>
   </si>
   <si>
     <t>Advanced DL-based T2w and DWI MR Sequences for Prostate Imaging</t>
   </si>
   <si>
     <t>Interest of Intravenous Cholangiography With Indocyanine Green, Compared to Contrast Cholangiography, in the Context of Laparoscopic Cholecystectomy for Grade 1 and 2 Acute Gallstone Cholecystitis: Prospective, Monocentric, Randomized Study</t>
+  </si>
+  <si>
+    <t>Assessment of the Effects of Maela Connected Follow-up on Well-being and Pain After Lumbar Spine Surgery</t>
+  </si>
+  <si>
+    <t>Treatment of COVID-19 by Nebulization of Inteferon Beta 1b added to lopinavir/ritonavir: Feasibility, Efficiency and Safety Study 
+ Traitement du COVID-19 : Etude de faisabilité, d’efficacité et de sécurité de l’ajout de Nébubilisation d’Interferon Beta 1b au lopinavir/ritonavir</t>
   </si>
   <si>
     <t>Evaluation of plasma concentrations of intravenous lidocaine and epidural ropivacaine when used in combination in major abdominal surgery 
  Évaluation des concentrations plasmatiques de la lidocaïne intra veineuse et de la ropivacaïne utilisée par voie péridurale lors de leur association dans les chirurgies abdominales majeures.</t>
   </si>
   <si>
-    <t>Treatment of COVID-19 by Nebulization of Inteferon Beta 1b added to lopinavir/ritonavir: Feasibility, Efficiency and Safety Study 
- Traitement du COVID-19 : Etude de faisabilité, d’efficacité et de sécurité de l’ajout de Nébubilisation d’Interferon Beta 1b au lopinavir/ritonavir</t>
-  </si>
-  <si>
     <t>Efficacity and safety of metformin extended release (XR) in diabetic patients with CKD in stages 1 to 3 (METXR/CKD) 
  Efficacité et tolérance de la metformine à diffusion prolongée (XR) chez le sujet diabétique dans les stades 1 à 3 d’insuffisance rénale chronique</t>
   </si>
@@ -799,12 +838,12 @@
     <t>Comparison of the Bilateral Transversus Abdominis Plane (TAP) Block Versus Curare in Muscle Relaxation of the Abdominal Wall During Laparoscopic Digestive Surgery: Prospective Randomized Study</t>
   </si>
   <si>
+    <t>Neo-PDGF</t>
+  </si>
+  <si>
     <t>HAA-NAC</t>
   </si>
   <si>
-    <t>Neo-PDGF</t>
-  </si>
-  <si>
     <t>RespiTEP</t>
   </si>
   <si>
@@ -814,214 +853,235 @@
     <t>ABCAL</t>
   </si>
   <si>
+    <t>GASTRAMBU</t>
+  </si>
+  <si>
     <t>MTM</t>
   </si>
   <si>
+    <t>FRENCH</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
     <t>RIFIONA</t>
   </si>
   <si>
-    <t>GASTRAMBU</t>
-  </si>
-  <si>
-    <t>Emotion</t>
-  </si>
-  <si>
-    <t>FRENCH</t>
+    <t>PANNIV</t>
+  </si>
+  <si>
+    <t>MARCHOBESE</t>
+  </si>
+  <si>
+    <t>MTM-COLON-I</t>
   </si>
   <si>
     <t>ROPI-LEVO</t>
   </si>
   <si>
-    <t>MTM-COLON-I</t>
+    <t>Sophrodol-1</t>
   </si>
   <si>
     <t>GPCBasedow</t>
   </si>
   <si>
-    <t>Sophrodol-1</t>
-  </si>
-  <si>
-    <t>MARCHOBESE</t>
-  </si>
-  <si>
-    <t>PANNIV</t>
+    <t>CALCILUP</t>
   </si>
   <si>
     <t>PneumoTEP</t>
   </si>
   <si>
-    <t>CALCILUP</t>
+    <t>EPIC</t>
   </si>
   <si>
     <t>REVENTIL</t>
   </si>
   <si>
+    <t>Blood-in-drape</t>
+  </si>
+  <si>
     <t>TEICOPLANIN</t>
   </si>
   <si>
     <t>MecoExpo</t>
   </si>
   <si>
-    <t>Blood-in-drape</t>
-  </si>
-  <si>
-    <t>EPIC</t>
+    <t>BIOKID</t>
+  </si>
+  <si>
+    <t>APPENDAMBU</t>
   </si>
   <si>
     <t>LPP</t>
   </si>
   <si>
+    <t>LAMVIRE</t>
+  </si>
+  <si>
+    <t>SAPL</t>
+  </si>
+  <si>
     <t>GRECogVASC</t>
   </si>
   <si>
-    <t>APPENDAMBU</t>
-  </si>
-  <si>
-    <t>LAMVIRE</t>
+    <t>PincesChaude</t>
   </si>
   <si>
     <t>SNEAD</t>
   </si>
   <si>
-    <t>SAPL</t>
-  </si>
-  <si>
-    <t>PincesChaude</t>
-  </si>
-  <si>
-    <t>BIOKID</t>
+    <t>MONITRANS</t>
+  </si>
+  <si>
+    <t>Xeladys</t>
+  </si>
+  <si>
+    <t>ETDT</t>
+  </si>
+  <si>
+    <t>PRFM-1</t>
+  </si>
+  <si>
+    <t>MTM-COLON-II</t>
+  </si>
+  <si>
+    <t>SCP TCI NIRS</t>
+  </si>
+  <si>
+    <t>NNP-MULTIMODAL</t>
+  </si>
+  <si>
+    <t>CELyPoR</t>
+  </si>
+  <si>
+    <t>RIVAFAG</t>
+  </si>
+  <si>
+    <t>NEXFIN</t>
   </si>
   <si>
     <t>PREMAVOIX</t>
   </si>
   <si>
-    <t>ETDT</t>
-  </si>
-  <si>
-    <t>NNP-MULTIMODAL</t>
-  </si>
-  <si>
-    <t>MTM-COLON-II</t>
-  </si>
-  <si>
-    <t>MONITRANS</t>
-  </si>
-  <si>
-    <t>PRFM-1</t>
-  </si>
-  <si>
-    <t>RIVAFAG</t>
-  </si>
-  <si>
-    <t>CELyPoR</t>
-  </si>
-  <si>
-    <t>Xeladys</t>
-  </si>
-  <si>
-    <t>NEXFIN</t>
-  </si>
-  <si>
-    <t>SCP TCI NIRS</t>
+    <t>NEUROSEV</t>
+  </si>
+  <si>
+    <t>ANI</t>
+  </si>
+  <si>
+    <t>ANLUP</t>
   </si>
   <si>
     <t>EETUV</t>
   </si>
   <si>
+    <t>TISSEEL</t>
+  </si>
+  <si>
     <t>COMPLISTAN</t>
   </si>
   <si>
-    <t>ANLUP</t>
-  </si>
-  <si>
-    <t>ANI</t>
-  </si>
-  <si>
-    <t>TISSEEL</t>
-  </si>
-  <si>
     <t>MCSF-MYELOME</t>
   </si>
   <si>
-    <t>NEUROSEV</t>
-  </si>
-  <si>
     <t>CARDIOX</t>
   </si>
   <si>
+    <t>APGADEPD</t>
+  </si>
+  <si>
+    <t>PULMOREM</t>
+  </si>
+  <si>
+    <t>AspergBPCO</t>
+  </si>
+  <si>
+    <t>CAMOMY</t>
+  </si>
+  <si>
     <t>RACE</t>
   </si>
   <si>
+    <t>APT1</t>
+  </si>
+  <si>
+    <t>PORTEAU</t>
+  </si>
+  <si>
     <t>HEPAFLUX</t>
   </si>
   <si>
-    <t>CAMOMY</t>
-  </si>
-  <si>
-    <t>PULMOREM</t>
-  </si>
-  <si>
-    <t>AspergBPCO</t>
-  </si>
-  <si>
     <t>ERNU</t>
   </si>
   <si>
-    <t>PORTEAU</t>
-  </si>
-  <si>
-    <t>APT1</t>
-  </si>
-  <si>
-    <t>APGADEPD</t>
-  </si>
-  <si>
     <t>ORFALU</t>
   </si>
   <si>
+    <t>SEOBACED</t>
+  </si>
+  <si>
+    <t>PRFM-3</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>HCC-CTPerf</t>
+  </si>
+  <si>
     <t>BDG -JIA</t>
   </si>
   <si>
     <t>Poly-CO</t>
   </si>
   <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>PRFM-3</t>
-  </si>
-  <si>
-    <t>HCC-CTPerf</t>
-  </si>
-  <si>
-    <t>SEOBACED</t>
+    <t>VeinGER</t>
+  </si>
+  <si>
+    <t>ECHO</t>
   </si>
   <si>
     <t>TACTIPARK</t>
   </si>
   <si>
-    <t>VeinGER</t>
-  </si>
-  <si>
-    <t>ECHO</t>
-  </si>
-  <si>
     <t>QolTENS</t>
   </si>
   <si>
+    <t>MEZO</t>
+  </si>
+  <si>
     <t>bartoli</t>
   </si>
   <si>
-    <t>MEZO</t>
+    <t>METXR/CKD</t>
+  </si>
+  <si>
+    <t>SIMOVI-IRM</t>
   </si>
   <si>
     <t>EP8SH</t>
   </si>
   <si>
-    <t>SIMOVI-IRM</t>
-  </si>
-  <si>
-    <t>METXR/CKD</t>
+    <t>VE-IRC</t>
+  </si>
+  <si>
+    <t>JACintHE</t>
+  </si>
+  <si>
+    <t>OPHIQUE</t>
+  </si>
+  <si>
+    <t>AMASTEC</t>
+  </si>
+  <si>
+    <t>EVASEF</t>
+  </si>
+  <si>
+    <t>PK-plèvre</t>
+  </si>
+  <si>
+    <t>RVLSBO</t>
   </si>
   <si>
     <t>REF-BIP</t>
@@ -1030,74 +1090,59 @@
     <t>ABBA</t>
   </si>
   <si>
-    <t>PK-plèvre</t>
-  </si>
-  <si>
-    <t>JACintHE</t>
+    <t>EVITREC</t>
+  </si>
+  <si>
+    <t>ENDO-FIV</t>
+  </si>
+  <si>
+    <t>GERONESIE</t>
+  </si>
+  <si>
+    <t>thoracoscopic</t>
+  </si>
+  <si>
+    <t>COV-NI</t>
+  </si>
+  <si>
+    <t>PERIGLUC1</t>
   </si>
   <si>
     <t>KOBIAS</t>
   </si>
   <si>
-    <t>AMASTEC</t>
-  </si>
-  <si>
-    <t>GERONESIE</t>
-  </si>
-  <si>
-    <t>EVITREC</t>
-  </si>
-  <si>
-    <t>OPHIQUE</t>
-  </si>
-  <si>
-    <t>RVLSBO</t>
-  </si>
-  <si>
-    <t>VE-IRC</t>
+    <t>RETEVAL</t>
   </si>
   <si>
     <t>HTPFLUW</t>
   </si>
   <si>
-    <t>PERIGLUC1</t>
-  </si>
-  <si>
-    <t>thoracoscopic</t>
-  </si>
-  <si>
-    <t>RETEVAL</t>
-  </si>
-  <si>
-    <t>ENDO-FIV</t>
+    <t>ROSA-IC</t>
   </si>
   <si>
     <t>SPIRETTE</t>
   </si>
   <si>
-    <t>ROSA-IC</t>
-  </si>
-  <si>
-    <t>COV-NI</t>
-  </si>
-  <si>
-    <t>EVASEF</t>
+    <t>DYNDOPATEP</t>
   </si>
   <si>
     <t>DLRPRO</t>
   </si>
   <si>
     <t>VIFCAL</t>
+  </si>
+  <si>
+    <t>HOSPITEL</t>
+  </si>
+  <si>
+    <t>COV-NI 
+ COV-NI</t>
   </si>
   <si>
     <t>LARA 
  LARA</t>
   </si>
   <si>
-    <t>COV-NI 
- COV-NI</t>
-  </si>
-  <si>
     <t>METXRpourIRC</t>
   </si>
   <si>
@@ -1107,16 +1152,19 @@
     <t>OTHER</t>
   </si>
   <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
     <t>DEVICE</t>
   </si>
   <si>
-    <t>PROCEDURE</t>
-  </si>
-  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
     <t>BIOLOGICAL</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
@@ -1477,7 +1525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1523,13 +1571,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1543,13 +1591,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1563,13 +1611,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="I4" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1583,13 +1631,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I5" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1603,16 +1651,16 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="I6" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1626,125 +1674,122 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="I7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>164</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
       </c>
       <c r="I8" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="I9" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>166</v>
+      </c>
+      <c r="H10" t="s">
+        <v>276</v>
       </c>
       <c r="I10" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="I12" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1758,102 +1803,108 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="I13" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>170</v>
+      </c>
+      <c r="H14" t="s">
+        <v>277</v>
       </c>
       <c r="I14" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H15" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="I15" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="I16" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="I17" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1867,62 +1918,62 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="I18" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H19" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="I19" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H20" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="I20" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1936,16 +1987,16 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="I21" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1959,16 +2010,16 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H22" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="I22" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1982,16 +2033,16 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H23" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="I23" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2005,85 +2056,85 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G24" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H24" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="I24" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="H25" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="I25" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H26" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="I26" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H27" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="I27" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2097,16 +2148,16 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G28" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="H28" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="I28" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2120,16 +2171,16 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="I29" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2142,17 +2193,17 @@
       <c r="C30" t="s">
         <v>45</v>
       </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
-      </c>
-      <c r="H30" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="I30" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2166,16 +2217,16 @@
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H31" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="I31" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2188,14 +2239,20 @@
       <c r="C32" t="s">
         <v>47</v>
       </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>188</v>
+      </c>
+      <c r="H32" t="s">
+        <v>294</v>
       </c>
       <c r="I32" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2209,16 +2266,16 @@
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G33" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H33" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="I33" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2232,62 +2289,62 @@
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G34" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H34" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="I34" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G35" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H35" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="I35" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H36" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="I36" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2301,16 +2358,16 @@
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G37" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H37" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="I37" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2324,13 +2381,16 @@
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>194</v>
+      </c>
+      <c r="H38" t="s">
+        <v>300</v>
       </c>
       <c r="I38" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2344,16 +2404,16 @@
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G39" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H39" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="I39" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2367,39 +2427,42 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H40" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="I40" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
+      <c r="D41" t="s">
+        <v>131</v>
+      </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H41" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2413,16 +2476,13 @@
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G42" t="s">
-        <v>187</v>
-      </c>
-      <c r="H42" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="I42" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2436,39 +2496,42 @@
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G43" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H43" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="I43" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G44" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="H44" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="I44" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2482,39 +2545,36 @@
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H45" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="I45" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G46" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H46" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="I46" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2528,16 +2588,16 @@
         <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G47" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="H47" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="I47" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2551,16 +2611,16 @@
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H48" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="I48" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2574,13 +2634,16 @@
         <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G49" t="s">
-        <v>194</v>
+        <v>205</v>
+      </c>
+      <c r="H49" t="s">
+        <v>309</v>
       </c>
       <c r="I49" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2594,16 +2657,16 @@
         <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H50" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="I50" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2614,16 +2677,19 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G51" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H51" t="s">
-        <v>298</v>
+        <v>311</v>
+      </c>
+      <c r="I51" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2637,16 +2703,16 @@
         <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G52" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H52" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="I52" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2660,16 +2726,16 @@
         <v>67</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G53" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H53" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="I53" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2683,16 +2749,16 @@
         <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G54" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="H54" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="I54" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2706,16 +2772,16 @@
         <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G55" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H55" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="I55" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2729,16 +2795,16 @@
         <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G56" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H56" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="I56" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2752,16 +2818,16 @@
         <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G57" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="H57" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="I57" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2774,17 +2840,20 @@
       <c r="C58" t="s">
         <v>72</v>
       </c>
+      <c r="D58" t="s">
+        <v>134</v>
+      </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G58" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H58" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="I58" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2798,16 +2867,16 @@
         <v>73</v>
       </c>
       <c r="F59" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G59" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H59" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="I59" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2821,16 +2890,16 @@
         <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G60" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="H60" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="I60" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2844,16 +2913,16 @@
         <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G61" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="H61" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="I61" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2866,17 +2935,20 @@
       <c r="C62" t="s">
         <v>76</v>
       </c>
+      <c r="D62" t="s">
+        <v>135</v>
+      </c>
       <c r="F62" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G62" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="H62" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="I62" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2890,16 +2962,16 @@
         <v>77</v>
       </c>
       <c r="F63" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G63" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H63" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="I63" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2913,16 +2985,16 @@
         <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G64" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H64" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="I64" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2936,13 +3008,16 @@
         <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G65" t="s">
-        <v>210</v>
+        <v>221</v>
+      </c>
+      <c r="H65" t="s">
+        <v>325</v>
       </c>
       <c r="I65" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2956,16 +3031,16 @@
         <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G66" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="H66" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="I66" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2979,16 +3054,16 @@
         <v>81</v>
       </c>
       <c r="F67" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G67" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="H67" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="I67" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3002,16 +3077,16 @@
         <v>82</v>
       </c>
       <c r="F68" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G68" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="H68" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="I68" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3025,16 +3100,16 @@
         <v>83</v>
       </c>
       <c r="F69" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G69" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="H69" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="I69" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3048,16 +3123,13 @@
         <v>84</v>
       </c>
       <c r="F70" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G70" t="s">
-        <v>215</v>
-      </c>
-      <c r="H70" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="I70" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3071,16 +3143,16 @@
         <v>85</v>
       </c>
       <c r="F71" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G71" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H71" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="I71" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3094,16 +3166,16 @@
         <v>86</v>
       </c>
       <c r="F72" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G72" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="H72" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="I72" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3117,16 +3189,16 @@
         <v>87</v>
       </c>
       <c r="F73" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G73" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="H73" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="I73" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3140,16 +3212,16 @@
         <v>88</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G74" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H74" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="I74" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3163,16 +3235,16 @@
         <v>89</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G75" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="H75" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="I75" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3186,16 +3258,16 @@
         <v>90</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G76" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="H76" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="I76" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3209,16 +3281,16 @@
         <v>91</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G77" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H77" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="I77" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3232,16 +3304,16 @@
         <v>92</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G78" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="H78" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I78" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3255,16 +3327,16 @@
         <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G79" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="H79" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="I79" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3278,16 +3350,16 @@
         <v>94</v>
       </c>
       <c r="F80" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G80" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="H80" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="I80" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3301,16 +3373,16 @@
         <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G81" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H81" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="I81" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3324,16 +3396,16 @@
         <v>96</v>
       </c>
       <c r="F82" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G82" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H82" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="I82" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3347,16 +3419,16 @@
         <v>97</v>
       </c>
       <c r="F83" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G83" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="H83" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="I83" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3370,16 +3442,16 @@
         <v>98</v>
       </c>
       <c r="F84" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G84" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H84" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="I84" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3393,16 +3465,16 @@
         <v>99</v>
       </c>
       <c r="F85" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G85" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="H85" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="I85" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3416,16 +3488,16 @@
         <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G86" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="H86" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="I86" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3439,16 +3511,16 @@
         <v>101</v>
       </c>
       <c r="F87" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G87" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="H87" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="I87" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3462,16 +3534,16 @@
         <v>102</v>
       </c>
       <c r="F88" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G88" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H88" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="I88" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3485,16 +3557,16 @@
         <v>103</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G89" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="H89" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="I89" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3508,39 +3580,39 @@
         <v>104</v>
       </c>
       <c r="F90" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G90" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H90" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="I90" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
         <v>105</v>
       </c>
       <c r="F91" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G91" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="H91" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="I91" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3554,16 +3626,16 @@
         <v>106</v>
       </c>
       <c r="F92" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G92" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H92" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="I92" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3577,16 +3649,16 @@
         <v>107</v>
       </c>
       <c r="F93" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G93" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H93" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="I93" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3600,16 +3672,16 @@
         <v>108</v>
       </c>
       <c r="F94" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G94" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H94" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="I94" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3623,16 +3695,16 @@
         <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G95" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="H95" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="I95" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3646,39 +3718,39 @@
         <v>110</v>
       </c>
       <c r="F96" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G96" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="H96" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="I96" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
         <v>111</v>
       </c>
       <c r="F97" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G97" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H97" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="I97" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3692,16 +3764,16 @@
         <v>112</v>
       </c>
       <c r="F98" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G98" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="H98" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="I98" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3715,16 +3787,16 @@
         <v>113</v>
       </c>
       <c r="F99" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G99" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H99" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="I99" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3738,16 +3810,16 @@
         <v>114</v>
       </c>
       <c r="F100" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G100" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="H100" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="I100" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3761,16 +3833,16 @@
         <v>115</v>
       </c>
       <c r="F101" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G101" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="H101" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="I101" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3784,16 +3856,16 @@
         <v>116</v>
       </c>
       <c r="F102" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G102" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="H102" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="I102" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3807,16 +3879,16 @@
         <v>117</v>
       </c>
       <c r="F103" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G103" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="H103" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="I103" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3830,16 +3902,16 @@
         <v>118</v>
       </c>
       <c r="F104" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G104" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="H104" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="I104" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3853,16 +3925,16 @@
         <v>119</v>
       </c>
       <c r="F105" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G105" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H105" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="I105" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3876,16 +3948,16 @@
         <v>120</v>
       </c>
       <c r="F106" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G106" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="H106" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="I106" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3899,16 +3971,16 @@
         <v>121</v>
       </c>
       <c r="F107" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G107" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H107" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="I107" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3922,16 +3994,16 @@
         <v>122</v>
       </c>
       <c r="F108" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G108" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="H108" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="I108" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3945,16 +4017,16 @@
         <v>123</v>
       </c>
       <c r="F109" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G109" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="H109" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="I109" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3968,16 +4040,16 @@
         <v>124</v>
       </c>
       <c r="F110" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G110" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="H110" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="I110" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3987,14 +4059,20 @@
       <c r="B111" t="s">
         <v>13</v>
       </c>
-      <c r="D111" t="s">
-        <v>127</v>
+      <c r="C111" t="s">
+        <v>125</v>
+      </c>
+      <c r="F111" t="s">
+        <v>156</v>
       </c>
       <c r="G111" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H111" t="s">
-        <v>357</v>
+        <v>370</v>
+      </c>
+      <c r="I111" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4004,31 +4082,40 @@
       <c r="B112" t="s">
         <v>13</v>
       </c>
-      <c r="D112" t="s">
-        <v>128</v>
+      <c r="C112" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" t="s">
+        <v>157</v>
       </c>
       <c r="G112" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="H112" t="s">
-        <v>358</v>
+        <v>371</v>
+      </c>
+      <c r="I112" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G113" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="H113" t="s">
-        <v>359</v>
+        <v>372</v>
+      </c>
+      <c r="I113" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4038,14 +4125,57 @@
       <c r="B114" t="s">
         <v>13</v>
       </c>
-      <c r="C114" t="s">
-        <v>125</v>
+      <c r="D114" t="s">
+        <v>137</v>
       </c>
       <c r="G114" t="s">
-        <v>259</v>
+        <v>270</v>
+      </c>
+      <c r="H114" t="s">
+        <v>373</v>
       </c>
       <c r="I114" t="s">
-        <v>360</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>138</v>
+      </c>
+      <c r="G115" t="s">
+        <v>271</v>
+      </c>
+      <c r="H115" t="s">
+        <v>374</v>
+      </c>
+      <c r="I115" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>127</v>
+      </c>
+      <c r="D116" t="s">
+        <v>139</v>
+      </c>
+      <c r="G116" t="s">
+        <v>272</v>
+      </c>
+      <c r="I116" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
